--- a/BackTest/2020-01-16 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-16 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -979,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1119,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1154,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1434,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1469,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1574,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1609,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1644,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1679,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1714,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1749,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1784,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1819,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1854,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3962,6 +4067,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3997,6 +4103,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4032,6 +4139,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4067,6 +4175,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4102,6 +4211,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4137,6 +4247,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4172,6 +4283,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4207,6 +4319,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4242,6 +4355,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4277,6 +4391,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4312,6 +4427,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4347,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4382,6 +4499,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4417,6 +4535,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4452,6 +4571,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4487,6 +4607,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4522,6 +4643,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4557,6 +4679,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4596,6 +4719,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4639,6 +4763,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4682,6 +4807,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4723,6 +4849,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4764,6 +4891,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4805,6 +4933,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4846,6 +4975,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4887,6 +5017,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4928,6 +5059,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4969,6 +5101,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5010,6 +5143,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5051,6 +5185,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5092,6 +5227,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5133,6 +5269,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5174,6 +5311,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5215,6 +5353,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5258,6 +5397,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5299,6 +5439,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5340,6 +5481,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-16 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.72</v>
+        <v>6.342</v>
       </c>
       <c r="C2" t="n">
-        <v>6.724</v>
+        <v>6.33</v>
       </c>
       <c r="D2" t="n">
-        <v>6.724</v>
+        <v>6.342</v>
       </c>
       <c r="E2" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="F2" t="n">
-        <v>9973.717000000001</v>
+        <v>134536.7415</v>
       </c>
       <c r="G2" t="n">
-        <v>978007.9393</v>
+        <v>-798239.9365000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.722</v>
+        <v>6.33</v>
       </c>
       <c r="C3" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="D3" t="n">
-        <v>6.722</v>
+        <v>6.33</v>
       </c>
       <c r="E3" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="F3" t="n">
-        <v>626727.7566</v>
+        <v>2686</v>
       </c>
       <c r="G3" t="n">
-        <v>351280.1827</v>
+        <v>-798239.9365000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.665</v>
+        <v>6.33</v>
       </c>
       <c r="C4" t="n">
-        <v>6.67</v>
+        <v>6.33</v>
       </c>
       <c r="D4" t="n">
-        <v>6.67</v>
+        <v>6.33</v>
       </c>
       <c r="E4" t="n">
-        <v>6.665</v>
+        <v>6.33</v>
       </c>
       <c r="F4" t="n">
-        <v>1239.1932</v>
+        <v>3562</v>
       </c>
       <c r="G4" t="n">
-        <v>350040.9895</v>
+        <v>-798239.9365000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.63</v>
+        <v>6.326</v>
       </c>
       <c r="C5" t="n">
-        <v>6.63</v>
+        <v>6.325</v>
       </c>
       <c r="D5" t="n">
-        <v>6.63</v>
+        <v>6.326</v>
       </c>
       <c r="E5" t="n">
-        <v>6.63</v>
+        <v>6.325</v>
       </c>
       <c r="F5" t="n">
-        <v>2729.0931</v>
+        <v>21237.8833</v>
       </c>
       <c r="G5" t="n">
-        <v>347311.8964</v>
+        <v>-819477.8198000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.663</v>
+        <v>6.425</v>
       </c>
       <c r="C6" t="n">
-        <v>6.663</v>
+        <v>6.435</v>
       </c>
       <c r="D6" t="n">
-        <v>6.663</v>
+        <v>6.435</v>
       </c>
       <c r="E6" t="n">
-        <v>6.663</v>
+        <v>6.425</v>
       </c>
       <c r="F6" t="n">
-        <v>600.3302</v>
+        <v>4629.6112</v>
       </c>
       <c r="G6" t="n">
-        <v>347912.2266000001</v>
+        <v>-814848.2086</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.62</v>
+        <v>6.435</v>
       </c>
       <c r="C7" t="n">
-        <v>6.46</v>
+        <v>6.435</v>
       </c>
       <c r="D7" t="n">
-        <v>6.62</v>
+        <v>6.435</v>
       </c>
       <c r="E7" t="n">
-        <v>6.46</v>
+        <v>6.435</v>
       </c>
       <c r="F7" t="n">
-        <v>13000</v>
+        <v>10996.4818</v>
       </c>
       <c r="G7" t="n">
-        <v>334912.2266000001</v>
+        <v>-814848.2086</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.608</v>
+        <v>6.435</v>
       </c>
       <c r="C8" t="n">
-        <v>6.618</v>
+        <v>6.435</v>
       </c>
       <c r="D8" t="n">
-        <v>6.618</v>
+        <v>6.435</v>
       </c>
       <c r="E8" t="n">
-        <v>6.608</v>
+        <v>6.435</v>
       </c>
       <c r="F8" t="n">
-        <v>8081.6154</v>
+        <v>1575.8657</v>
       </c>
       <c r="G8" t="n">
-        <v>342993.8420000001</v>
+        <v>-814848.2086</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.618</v>
+        <v>6.344</v>
       </c>
       <c r="C9" t="n">
-        <v>6.618</v>
+        <v>6.334</v>
       </c>
       <c r="D9" t="n">
-        <v>6.618</v>
+        <v>6.344</v>
       </c>
       <c r="E9" t="n">
-        <v>6.618</v>
+        <v>6.334</v>
       </c>
       <c r="F9" t="n">
-        <v>9918.000099999999</v>
+        <v>12875.2742</v>
       </c>
       <c r="G9" t="n">
-        <v>342993.8420000001</v>
+        <v>-827723.4828</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.618</v>
+        <v>6.334</v>
       </c>
       <c r="C10" t="n">
-        <v>6.618</v>
+        <v>6.334</v>
       </c>
       <c r="D10" t="n">
-        <v>6.618</v>
+        <v>6.334</v>
       </c>
       <c r="E10" t="n">
-        <v>6.618</v>
+        <v>6.334</v>
       </c>
       <c r="F10" t="n">
-        <v>6000</v>
+        <v>156871.5026</v>
       </c>
       <c r="G10" t="n">
-        <v>342993.8420000001</v>
+        <v>-827723.4828</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.618</v>
+        <v>6.333</v>
       </c>
       <c r="C11" t="n">
-        <v>6.618</v>
+        <v>6.333</v>
       </c>
       <c r="D11" t="n">
-        <v>6.618</v>
+        <v>6.333</v>
       </c>
       <c r="E11" t="n">
-        <v>6.618</v>
+        <v>6.333</v>
       </c>
       <c r="F11" t="n">
-        <v>3407.8319</v>
+        <v>101564.8625</v>
       </c>
       <c r="G11" t="n">
-        <v>342993.8420000001</v>
+        <v>-929288.3453</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,32 +798,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.618</v>
+        <v>6.331</v>
       </c>
       <c r="C12" t="n">
-        <v>6.618</v>
+        <v>6.33</v>
       </c>
       <c r="D12" t="n">
-        <v>6.618</v>
+        <v>6.331</v>
       </c>
       <c r="E12" t="n">
-        <v>6.618</v>
+        <v>6.33</v>
       </c>
       <c r="F12" t="n">
-        <v>592.1681</v>
+        <v>76575.0692</v>
       </c>
       <c r="G12" t="n">
-        <v>342993.8420000001</v>
+        <v>-1005863.4145</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6.333</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +840,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="C13" t="n">
-        <v>6.72</v>
+        <v>6.334</v>
       </c>
       <c r="D13" t="n">
-        <v>6.72</v>
+        <v>6.334</v>
       </c>
       <c r="E13" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="F13" t="n">
-        <v>1511.0305</v>
+        <v>174834.2821</v>
       </c>
       <c r="G13" t="n">
-        <v>344504.8725000001</v>
+        <v>-831029.1324</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +882,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="C14" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="D14" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="E14" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="F14" t="n">
-        <v>64994.5982</v>
+        <v>42518.9291</v>
       </c>
       <c r="G14" t="n">
-        <v>344504.8725000001</v>
+        <v>-873548.0615</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.334</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +924,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.74</v>
+        <v>6.33</v>
       </c>
       <c r="C15" t="n">
-        <v>6.74</v>
+        <v>6.33</v>
       </c>
       <c r="D15" t="n">
-        <v>6.74</v>
+        <v>6.33</v>
       </c>
       <c r="E15" t="n">
-        <v>6.74</v>
+        <v>6.33</v>
       </c>
       <c r="F15" t="n">
-        <v>86.33750000000001</v>
+        <v>26244.6808</v>
       </c>
       <c r="G15" t="n">
-        <v>344591.2100000001</v>
+        <v>-873548.0615</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +966,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.74</v>
+        <v>6.326</v>
       </c>
       <c r="C16" t="n">
-        <v>6.74</v>
+        <v>6.326</v>
       </c>
       <c r="D16" t="n">
-        <v>6.74</v>
+        <v>6.326</v>
       </c>
       <c r="E16" t="n">
-        <v>6.74</v>
+        <v>6.326</v>
       </c>
       <c r="F16" t="n">
-        <v>913.6625</v>
+        <v>12386.1082</v>
       </c>
       <c r="G16" t="n">
-        <v>344591.2100000001</v>
+        <v>-885934.1697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1008,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.741</v>
+        <v>6.325</v>
       </c>
       <c r="C17" t="n">
-        <v>6.74</v>
+        <v>6.325</v>
       </c>
       <c r="D17" t="n">
-        <v>6.741</v>
+        <v>6.325</v>
       </c>
       <c r="E17" t="n">
-        <v>6.74</v>
+        <v>6.325</v>
       </c>
       <c r="F17" t="n">
-        <v>28888.4453</v>
+        <v>32198.5349</v>
       </c>
       <c r="G17" t="n">
-        <v>344591.2100000001</v>
+        <v>-918132.7045999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.326</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1050,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.74</v>
+        <v>6.334</v>
       </c>
       <c r="C18" t="n">
-        <v>6.74</v>
+        <v>6.334</v>
       </c>
       <c r="D18" t="n">
-        <v>6.74</v>
+        <v>6.334</v>
       </c>
       <c r="E18" t="n">
-        <v>6.74</v>
+        <v>6.334</v>
       </c>
       <c r="F18" t="n">
-        <v>101.2592551928783</v>
+        <v>3257</v>
       </c>
       <c r="G18" t="n">
-        <v>344591.2100000001</v>
+        <v>-914875.7045999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.325</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1092,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.738</v>
+        <v>6.333</v>
       </c>
       <c r="C19" t="n">
-        <v>6.738</v>
+        <v>6.333</v>
       </c>
       <c r="D19" t="n">
-        <v>6.738</v>
+        <v>6.333</v>
       </c>
       <c r="E19" t="n">
-        <v>6.738</v>
+        <v>6.333</v>
       </c>
       <c r="F19" t="n">
-        <v>29603.9097</v>
+        <v>13418.3912</v>
       </c>
       <c r="G19" t="n">
-        <v>314987.3003000001</v>
+        <v>-928294.0957999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.334</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1134,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.72</v>
+        <v>6.334</v>
       </c>
       <c r="C20" t="n">
-        <v>6.72</v>
+        <v>6.334</v>
       </c>
       <c r="D20" t="n">
-        <v>6.72</v>
+        <v>6.334</v>
       </c>
       <c r="E20" t="n">
-        <v>6.72</v>
+        <v>6.334</v>
       </c>
       <c r="F20" t="n">
-        <v>19354.8808</v>
+        <v>82779.19259999999</v>
       </c>
       <c r="G20" t="n">
-        <v>295632.4195000001</v>
+        <v>-845514.9031999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.333</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1176,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.72</v>
+        <v>6.446</v>
       </c>
       <c r="C21" t="n">
-        <v>6.72</v>
+        <v>6.446</v>
       </c>
       <c r="D21" t="n">
-        <v>6.72</v>
+        <v>6.446</v>
       </c>
       <c r="E21" t="n">
-        <v>6.72</v>
+        <v>6.446</v>
       </c>
       <c r="F21" t="n">
-        <v>47150.8964</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="n">
-        <v>295632.4195000001</v>
+        <v>-835514.9031999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.334</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1218,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.63</v>
+        <v>6.446</v>
       </c>
       <c r="C22" t="n">
-        <v>6.62</v>
+        <v>6.446</v>
       </c>
       <c r="D22" t="n">
-        <v>6.63</v>
+        <v>6.446</v>
       </c>
       <c r="E22" t="n">
-        <v>6.62</v>
+        <v>6.446</v>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>5144.1614</v>
       </c>
       <c r="G22" t="n">
-        <v>290632.4195000001</v>
+        <v>-835514.9031999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.446</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1260,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.722</v>
+        <v>6.446</v>
       </c>
       <c r="C23" t="n">
-        <v>6.723</v>
+        <v>6.446</v>
       </c>
       <c r="D23" t="n">
-        <v>6.723</v>
+        <v>6.446</v>
       </c>
       <c r="E23" t="n">
-        <v>6.722</v>
+        <v>6.446</v>
       </c>
       <c r="F23" t="n">
-        <v>148749.0904266399</v>
+        <v>9081.3709</v>
       </c>
       <c r="G23" t="n">
-        <v>439381.50992664</v>
+        <v>-835514.9031999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1285,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1300,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.62</v>
+        <v>6.446</v>
       </c>
       <c r="C24" t="n">
-        <v>6.62</v>
+        <v>6.446</v>
       </c>
       <c r="D24" t="n">
-        <v>6.62</v>
+        <v>6.446</v>
       </c>
       <c r="E24" t="n">
-        <v>6.62</v>
+        <v>6.446</v>
       </c>
       <c r="F24" t="n">
-        <v>3664.9041</v>
+        <v>192163.8252</v>
       </c>
       <c r="G24" t="n">
-        <v>435716.60582664</v>
+        <v>-835514.9031999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1325,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.533</v>
+        <v>6.449</v>
       </c>
       <c r="C25" t="n">
-        <v>6.498</v>
+        <v>6.46</v>
       </c>
       <c r="D25" t="n">
-        <v>6.533</v>
+        <v>6.46</v>
       </c>
       <c r="E25" t="n">
-        <v>6.498</v>
+        <v>6.449</v>
       </c>
       <c r="F25" t="n">
-        <v>15000</v>
+        <v>113373.8464</v>
       </c>
       <c r="G25" t="n">
-        <v>420716.60582664</v>
+        <v>-722141.0567999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1365,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1380,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.609</v>
+        <v>6.464</v>
       </c>
       <c r="C26" t="n">
-        <v>6.609</v>
+        <v>6.7</v>
       </c>
       <c r="D26" t="n">
-        <v>6.609</v>
+        <v>6.7</v>
       </c>
       <c r="E26" t="n">
-        <v>6.609</v>
+        <v>6.464</v>
       </c>
       <c r="F26" t="n">
-        <v>766.2746</v>
+        <v>1652693.9207</v>
       </c>
       <c r="G26" t="n">
-        <v>421482.88042664</v>
+        <v>930552.8639</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1405,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1420,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.52</v>
+        <v>6.719</v>
       </c>
       <c r="C27" t="n">
-        <v>6.51</v>
+        <v>6.719</v>
       </c>
       <c r="D27" t="n">
-        <v>6.52</v>
+        <v>6.719</v>
       </c>
       <c r="E27" t="n">
-        <v>6.51</v>
+        <v>6.719</v>
       </c>
       <c r="F27" t="n">
-        <v>30000</v>
+        <v>6433.8439</v>
       </c>
       <c r="G27" t="n">
-        <v>391482.88042664</v>
+        <v>936986.7078</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1445,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1460,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.619</v>
+        <v>6.4</v>
       </c>
       <c r="C28" t="n">
-        <v>6.62</v>
+        <v>6.4</v>
       </c>
       <c r="D28" t="n">
-        <v>6.62</v>
+        <v>6.4</v>
       </c>
       <c r="E28" t="n">
-        <v>6.619</v>
+        <v>6.4</v>
       </c>
       <c r="F28" t="n">
-        <v>15107.17573358006</v>
+        <v>25105.5539</v>
       </c>
       <c r="G28" t="n">
-        <v>406590.0561602201</v>
+        <v>911881.1539</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1485,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1500,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.62</v>
+        <v>6.441</v>
       </c>
       <c r="C29" t="n">
-        <v>6.62</v>
+        <v>6.441</v>
       </c>
       <c r="D29" t="n">
-        <v>6.62</v>
+        <v>6.441</v>
       </c>
       <c r="E29" t="n">
-        <v>6.62</v>
+        <v>6.441</v>
       </c>
       <c r="F29" t="n">
-        <v>1034.8259</v>
+        <v>7467.0711</v>
       </c>
       <c r="G29" t="n">
-        <v>406590.0561602201</v>
+        <v>919348.225</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1525,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1540,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.61</v>
+        <v>6.62</v>
       </c>
       <c r="C30" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="D30" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="E30" t="n">
-        <v>6.61</v>
+        <v>6.62</v>
       </c>
       <c r="F30" t="n">
-        <v>8840</v>
+        <v>48685.9973</v>
       </c>
       <c r="G30" t="n">
-        <v>397750.0561602201</v>
+        <v>968034.2223</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1580,36 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.61</v>
+        <v>6.72</v>
       </c>
       <c r="C31" t="n">
-        <v>6.512</v>
+        <v>6.724</v>
       </c>
       <c r="D31" t="n">
-        <v>6.61</v>
+        <v>6.724</v>
       </c>
       <c r="E31" t="n">
-        <v>6.512</v>
+        <v>6.72</v>
       </c>
       <c r="F31" t="n">
-        <v>9133.7814</v>
+        <v>9973.717000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>388616.2747602201</v>
+        <v>978007.9393</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1620,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.62</v>
+        <v>6.722</v>
       </c>
       <c r="C32" t="n">
-        <v>6.62</v>
+        <v>6.72</v>
       </c>
       <c r="D32" t="n">
-        <v>6.62</v>
+        <v>6.722</v>
       </c>
       <c r="E32" t="n">
-        <v>6.62</v>
+        <v>6.72</v>
       </c>
       <c r="F32" t="n">
-        <v>3000</v>
+        <v>626727.7566</v>
       </c>
       <c r="G32" t="n">
-        <v>391616.2747602201</v>
+        <v>351280.1827</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1645,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1660,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.61</v>
+        <v>6.665</v>
       </c>
       <c r="C33" t="n">
-        <v>6.61</v>
+        <v>6.67</v>
       </c>
       <c r="D33" t="n">
-        <v>6.61</v>
+        <v>6.67</v>
       </c>
       <c r="E33" t="n">
-        <v>6.61</v>
+        <v>6.665</v>
       </c>
       <c r="F33" t="n">
-        <v>20974.2734</v>
+        <v>1239.1932</v>
       </c>
       <c r="G33" t="n">
-        <v>370642.0013602201</v>
+        <v>350040.9895</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1685,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1700,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="C34" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="D34" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="E34" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="F34" t="n">
-        <v>84656.6982</v>
+        <v>2729.0931</v>
       </c>
       <c r="G34" t="n">
-        <v>370642.0013602201</v>
+        <v>347311.8964</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1740,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.61</v>
+        <v>6.663</v>
       </c>
       <c r="C35" t="n">
-        <v>6.61</v>
+        <v>6.663</v>
       </c>
       <c r="D35" t="n">
-        <v>6.61</v>
+        <v>6.663</v>
       </c>
       <c r="E35" t="n">
-        <v>6.61</v>
+        <v>6.663</v>
       </c>
       <c r="F35" t="n">
-        <v>41234.0433</v>
+        <v>600.3302</v>
       </c>
       <c r="G35" t="n">
-        <v>370642.0013602201</v>
+        <v>347912.2266000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1665,29 +1783,33 @@
         <v>6.62</v>
       </c>
       <c r="C36" t="n">
-        <v>6.62</v>
+        <v>6.46</v>
       </c>
       <c r="D36" t="n">
         <v>6.62</v>
       </c>
       <c r="E36" t="n">
-        <v>6.62</v>
+        <v>6.46</v>
       </c>
       <c r="F36" t="n">
-        <v>15718.40846641994</v>
+        <v>13000</v>
       </c>
       <c r="G36" t="n">
-        <v>386360.40982664</v>
+        <v>334912.2266000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1820,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.621</v>
+        <v>6.608</v>
       </c>
       <c r="C37" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="D37" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="E37" t="n">
-        <v>6.621</v>
+        <v>6.608</v>
       </c>
       <c r="F37" t="n">
-        <v>125347.5703</v>
+        <v>8081.6154</v>
       </c>
       <c r="G37" t="n">
-        <v>511707.9801266401</v>
+        <v>342993.8420000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1860,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="C38" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="D38" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="E38" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="F38" t="n">
-        <v>26202.4846</v>
+        <v>9918.000099999999</v>
       </c>
       <c r="G38" t="n">
-        <v>511707.9801266401</v>
+        <v>342993.8420000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1900,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="C39" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="D39" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="E39" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="F39" t="n">
-        <v>39303.8774</v>
+        <v>6000</v>
       </c>
       <c r="G39" t="n">
-        <v>511707.9801266401</v>
+        <v>342993.8420000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1940,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="C40" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="D40" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="E40" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="F40" t="n">
-        <v>28639.1573</v>
+        <v>3407.8319</v>
       </c>
       <c r="G40" t="n">
-        <v>511707.9801266401</v>
+        <v>342993.8420000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +1980,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="C41" t="n">
-        <v>6.61</v>
+        <v>6.618</v>
       </c>
       <c r="D41" t="n">
-        <v>6.621</v>
+        <v>6.618</v>
       </c>
       <c r="E41" t="n">
-        <v>6.61</v>
+        <v>6.618</v>
       </c>
       <c r="F41" t="n">
-        <v>96331.3628</v>
+        <v>592.1681</v>
       </c>
       <c r="G41" t="n">
-        <v>415376.6173266401</v>
+        <v>342993.8420000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2020,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.51</v>
+        <v>6.72</v>
       </c>
       <c r="C42" t="n">
-        <v>6.51</v>
+        <v>6.72</v>
       </c>
       <c r="D42" t="n">
-        <v>6.51</v>
+        <v>6.72</v>
       </c>
       <c r="E42" t="n">
-        <v>6.51</v>
+        <v>6.72</v>
       </c>
       <c r="F42" t="n">
-        <v>10000</v>
+        <v>1511.0305</v>
       </c>
       <c r="G42" t="n">
-        <v>405376.6173266401</v>
+        <v>344504.8725000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2060,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.51</v>
+        <v>6.72</v>
       </c>
       <c r="C43" t="n">
-        <v>6.51</v>
+        <v>6.72</v>
       </c>
       <c r="D43" t="n">
-        <v>6.51</v>
+        <v>6.72</v>
       </c>
       <c r="E43" t="n">
-        <v>6.51</v>
+        <v>6.72</v>
       </c>
       <c r="F43" t="n">
-        <v>9315.303900000001</v>
+        <v>64994.5982</v>
       </c>
       <c r="G43" t="n">
-        <v>405376.6173266401</v>
+        <v>344504.8725000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +2085,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2100,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.488</v>
+        <v>6.74</v>
       </c>
       <c r="C44" t="n">
-        <v>6.4</v>
+        <v>6.74</v>
       </c>
       <c r="D44" t="n">
-        <v>6.488</v>
+        <v>6.74</v>
       </c>
       <c r="E44" t="n">
-        <v>6.4</v>
+        <v>6.74</v>
       </c>
       <c r="F44" t="n">
-        <v>484507.7045</v>
+        <v>86.33750000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-79131.08717335993</v>
+        <v>344591.2100000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2125,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2140,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.351</v>
+        <v>6.74</v>
       </c>
       <c r="C45" t="n">
-        <v>6.319</v>
+        <v>6.74</v>
       </c>
       <c r="D45" t="n">
-        <v>6.351</v>
+        <v>6.74</v>
       </c>
       <c r="E45" t="n">
-        <v>6.319</v>
+        <v>6.74</v>
       </c>
       <c r="F45" t="n">
-        <v>500000</v>
+        <v>913.6625</v>
       </c>
       <c r="G45" t="n">
-        <v>-579131.0871733599</v>
+        <v>344591.2100000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2011,7 +2165,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2180,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.319</v>
+        <v>6.741</v>
       </c>
       <c r="C46" t="n">
-        <v>6.304</v>
+        <v>6.74</v>
       </c>
       <c r="D46" t="n">
-        <v>6.319</v>
+        <v>6.741</v>
       </c>
       <c r="E46" t="n">
-        <v>6.304</v>
+        <v>6.74</v>
       </c>
       <c r="F46" t="n">
-        <v>608286.0844000001</v>
+        <v>28888.4453</v>
       </c>
       <c r="G46" t="n">
-        <v>-1187417.17157336</v>
+        <v>344591.2100000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2205,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2220,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.304</v>
+        <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>6.3</v>
+        <v>6.74</v>
       </c>
       <c r="D47" t="n">
-        <v>6.304</v>
+        <v>6.74</v>
       </c>
       <c r="E47" t="n">
-        <v>6.3</v>
+        <v>6.74</v>
       </c>
       <c r="F47" t="n">
-        <v>623778.3799000001</v>
+        <v>101.2592551928783</v>
       </c>
       <c r="G47" t="n">
-        <v>-1811195.55147336</v>
+        <v>344591.2100000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2245,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2260,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.452</v>
+        <v>6.738</v>
       </c>
       <c r="C48" t="n">
-        <v>6.303</v>
+        <v>6.738</v>
       </c>
       <c r="D48" t="n">
-        <v>6.453</v>
+        <v>6.738</v>
       </c>
       <c r="E48" t="n">
-        <v>6.303</v>
+        <v>6.738</v>
       </c>
       <c r="F48" t="n">
-        <v>35473.28386353634</v>
+        <v>29603.9097</v>
       </c>
       <c r="G48" t="n">
-        <v>-1775722.267609824</v>
+        <v>314987.3003000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2119,7 +2285,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2300,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.303</v>
+        <v>6.72</v>
       </c>
       <c r="C49" t="n">
-        <v>6.61</v>
+        <v>6.72</v>
       </c>
       <c r="D49" t="n">
-        <v>6.61</v>
+        <v>6.72</v>
       </c>
       <c r="E49" t="n">
-        <v>6.303</v>
+        <v>6.72</v>
       </c>
       <c r="F49" t="n">
-        <v>8369.240675707231</v>
+        <v>19354.8808</v>
       </c>
       <c r="G49" t="n">
-        <v>-1767353.026934117</v>
+        <v>295632.4195000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2155,7 +2325,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2340,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.5</v>
+        <v>6.72</v>
       </c>
       <c r="C50" t="n">
-        <v>6.5</v>
+        <v>6.72</v>
       </c>
       <c r="D50" t="n">
-        <v>6.5</v>
+        <v>6.72</v>
       </c>
       <c r="E50" t="n">
-        <v>6.5</v>
+        <v>6.72</v>
       </c>
       <c r="F50" t="n">
-        <v>7663.3881</v>
+        <v>47150.8964</v>
       </c>
       <c r="G50" t="n">
-        <v>-1775016.415034117</v>
+        <v>295632.4195000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2191,7 +2365,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2380,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.577</v>
+        <v>6.63</v>
       </c>
       <c r="C51" t="n">
-        <v>6.577</v>
+        <v>6.62</v>
       </c>
       <c r="D51" t="n">
-        <v>6.577</v>
+        <v>6.63</v>
       </c>
       <c r="E51" t="n">
-        <v>6.577</v>
+        <v>6.62</v>
       </c>
       <c r="F51" t="n">
-        <v>1518.0241</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="n">
-        <v>-1773498.390934117</v>
+        <v>290632.4195000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2227,7 +2405,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2420,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.343</v>
+        <v>6.722</v>
       </c>
       <c r="C52" t="n">
-        <v>6.343</v>
+        <v>6.723</v>
       </c>
       <c r="D52" t="n">
-        <v>6.343</v>
+        <v>6.723</v>
       </c>
       <c r="E52" t="n">
-        <v>6.343</v>
+        <v>6.722</v>
       </c>
       <c r="F52" t="n">
-        <v>632.1900000000001</v>
+        <v>148749.0904266399</v>
       </c>
       <c r="G52" t="n">
-        <v>-1774130.580934117</v>
+        <v>439381.50992664</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2263,7 +2445,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2460,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.544</v>
+        <v>6.62</v>
       </c>
       <c r="C53" t="n">
-        <v>6.544</v>
+        <v>6.62</v>
       </c>
       <c r="D53" t="n">
-        <v>6.544</v>
+        <v>6.62</v>
       </c>
       <c r="E53" t="n">
-        <v>6.544</v>
+        <v>6.62</v>
       </c>
       <c r="F53" t="n">
-        <v>6290</v>
+        <v>3664.9041</v>
       </c>
       <c r="G53" t="n">
-        <v>-1767840.580934117</v>
+        <v>435716.60582664</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2299,7 +2485,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2500,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.544</v>
+        <v>6.533</v>
       </c>
       <c r="C54" t="n">
-        <v>6.39</v>
+        <v>6.498</v>
       </c>
       <c r="D54" t="n">
-        <v>6.544</v>
+        <v>6.533</v>
       </c>
       <c r="E54" t="n">
-        <v>6.39</v>
+        <v>6.498</v>
       </c>
       <c r="F54" t="n">
-        <v>42925.7728</v>
+        <v>15000</v>
       </c>
       <c r="G54" t="n">
-        <v>-1810766.353734117</v>
+        <v>420716.60582664</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2335,7 +2525,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2540,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.374</v>
+        <v>6.609</v>
       </c>
       <c r="C55" t="n">
-        <v>6.374</v>
+        <v>6.609</v>
       </c>
       <c r="D55" t="n">
-        <v>6.374</v>
+        <v>6.609</v>
       </c>
       <c r="E55" t="n">
-        <v>6.374</v>
+        <v>6.609</v>
       </c>
       <c r="F55" t="n">
-        <v>42868.8773</v>
+        <v>766.2746</v>
       </c>
       <c r="G55" t="n">
-        <v>-1853635.231034117</v>
+        <v>421482.88042664</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2371,7 +2565,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2580,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.343</v>
+        <v>6.52</v>
       </c>
       <c r="C56" t="n">
-        <v>6.343</v>
+        <v>6.51</v>
       </c>
       <c r="D56" t="n">
-        <v>6.343</v>
+        <v>6.52</v>
       </c>
       <c r="E56" t="n">
-        <v>6.343</v>
+        <v>6.51</v>
       </c>
       <c r="F56" t="n">
-        <v>79</v>
+        <v>30000</v>
       </c>
       <c r="G56" t="n">
-        <v>-1853714.231034117</v>
+        <v>391482.88042664</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2407,7 +2605,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2620,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.369</v>
+        <v>6.619</v>
       </c>
       <c r="C57" t="n">
-        <v>6.33</v>
+        <v>6.62</v>
       </c>
       <c r="D57" t="n">
-        <v>6.369</v>
+        <v>6.62</v>
       </c>
       <c r="E57" t="n">
-        <v>6.33</v>
+        <v>6.619</v>
       </c>
       <c r="F57" t="n">
-        <v>489450</v>
+        <v>15107.17573358006</v>
       </c>
       <c r="G57" t="n">
-        <v>-2343164.231034117</v>
+        <v>406590.0561602201</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2443,7 +2645,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2660,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.33</v>
+        <v>6.62</v>
       </c>
       <c r="C58" t="n">
-        <v>6.33</v>
+        <v>6.62</v>
       </c>
       <c r="D58" t="n">
-        <v>6.33</v>
+        <v>6.62</v>
       </c>
       <c r="E58" t="n">
-        <v>6.33</v>
+        <v>6.62</v>
       </c>
       <c r="F58" t="n">
-        <v>9190.165800000001</v>
+        <v>1034.8259</v>
       </c>
       <c r="G58" t="n">
-        <v>-2343164.231034117</v>
+        <v>406590.0561602201</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2479,7 +2685,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2700,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.355</v>
+        <v>6.61</v>
       </c>
       <c r="C59" t="n">
-        <v>6.355</v>
+        <v>6.61</v>
       </c>
       <c r="D59" t="n">
-        <v>6.355</v>
+        <v>6.61</v>
       </c>
       <c r="E59" t="n">
-        <v>6.355</v>
+        <v>6.61</v>
       </c>
       <c r="F59" t="n">
-        <v>4376.7753</v>
+        <v>8840</v>
       </c>
       <c r="G59" t="n">
-        <v>-2338787.455734117</v>
+        <v>397750.0561602201</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2515,7 +2725,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2740,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.4</v>
+        <v>6.61</v>
       </c>
       <c r="C60" t="n">
-        <v>6.4</v>
+        <v>6.512</v>
       </c>
       <c r="D60" t="n">
-        <v>6.4</v>
+        <v>6.61</v>
       </c>
       <c r="E60" t="n">
-        <v>6.4</v>
+        <v>6.512</v>
       </c>
       <c r="F60" t="n">
-        <v>17893.2171</v>
+        <v>9133.7814</v>
       </c>
       <c r="G60" t="n">
-        <v>-2320894.238634117</v>
+        <v>388616.2747602201</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2551,7 +2765,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2780,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.4</v>
+        <v>6.62</v>
       </c>
       <c r="C61" t="n">
-        <v>6.4</v>
+        <v>6.62</v>
       </c>
       <c r="D61" t="n">
-        <v>6.4</v>
+        <v>6.62</v>
       </c>
       <c r="E61" t="n">
-        <v>6.4</v>
+        <v>6.62</v>
       </c>
       <c r="F61" t="n">
-        <v>78.3</v>
+        <v>3000</v>
       </c>
       <c r="G61" t="n">
-        <v>-2320894.238634117</v>
+        <v>391616.2747602201</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2805,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2820,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.401</v>
+        <v>6.61</v>
       </c>
       <c r="C62" t="n">
-        <v>6.401</v>
+        <v>6.61</v>
       </c>
       <c r="D62" t="n">
-        <v>6.401</v>
+        <v>6.61</v>
       </c>
       <c r="E62" t="n">
-        <v>6.401</v>
+        <v>6.61</v>
       </c>
       <c r="F62" t="n">
-        <v>1871.8316</v>
+        <v>20974.2734</v>
       </c>
       <c r="G62" t="n">
-        <v>-2319022.407034117</v>
+        <v>370642.0013602201</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2623,7 +2845,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2860,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.401</v>
+        <v>6.61</v>
       </c>
       <c r="C63" t="n">
-        <v>6.4</v>
+        <v>6.61</v>
       </c>
       <c r="D63" t="n">
-        <v>6.463</v>
+        <v>6.61</v>
       </c>
       <c r="E63" t="n">
-        <v>6.4</v>
+        <v>6.61</v>
       </c>
       <c r="F63" t="n">
-        <v>348571.9706</v>
+        <v>84656.6982</v>
       </c>
       <c r="G63" t="n">
-        <v>-2667594.377634117</v>
+        <v>370642.0013602201</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2885,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2900,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.464</v>
+        <v>6.61</v>
       </c>
       <c r="C64" t="n">
-        <v>6.464</v>
+        <v>6.61</v>
       </c>
       <c r="D64" t="n">
-        <v>6.464</v>
+        <v>6.61</v>
       </c>
       <c r="E64" t="n">
-        <v>6.464</v>
+        <v>6.61</v>
       </c>
       <c r="F64" t="n">
-        <v>7070</v>
+        <v>41234.0433</v>
       </c>
       <c r="G64" t="n">
-        <v>-2660524.377634117</v>
+        <v>370642.0013602201</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2925,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2940,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.41</v>
+        <v>6.62</v>
       </c>
       <c r="C65" t="n">
-        <v>6.41</v>
+        <v>6.62</v>
       </c>
       <c r="D65" t="n">
-        <v>6.41</v>
+        <v>6.62</v>
       </c>
       <c r="E65" t="n">
-        <v>6.41</v>
+        <v>6.62</v>
       </c>
       <c r="F65" t="n">
-        <v>15930.3074</v>
+        <v>15718.40846641994</v>
       </c>
       <c r="G65" t="n">
-        <v>-2676454.685034117</v>
+        <v>386360.40982664</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +2965,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2980,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.405</v>
+        <v>6.621</v>
       </c>
       <c r="C66" t="n">
-        <v>6.405</v>
+        <v>6.621</v>
       </c>
       <c r="D66" t="n">
-        <v>6.405</v>
+        <v>6.621</v>
       </c>
       <c r="E66" t="n">
-        <v>6.405</v>
+        <v>6.621</v>
       </c>
       <c r="F66" t="n">
-        <v>66756.9777</v>
+        <v>125347.5703</v>
       </c>
       <c r="G66" t="n">
-        <v>-2743211.662734117</v>
+        <v>511707.9801266401</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +3005,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3020,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.464</v>
+        <v>6.621</v>
       </c>
       <c r="C67" t="n">
-        <v>6.464</v>
+        <v>6.621</v>
       </c>
       <c r="D67" t="n">
-        <v>6.464</v>
+        <v>6.621</v>
       </c>
       <c r="E67" t="n">
-        <v>6.464</v>
+        <v>6.621</v>
       </c>
       <c r="F67" t="n">
-        <v>8469.9249</v>
+        <v>26202.4846</v>
       </c>
       <c r="G67" t="n">
-        <v>-2734741.737834117</v>
+        <v>511707.9801266401</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +3045,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3060,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.464</v>
+        <v>6.621</v>
       </c>
       <c r="C68" t="n">
-        <v>6.536</v>
+        <v>6.621</v>
       </c>
       <c r="D68" t="n">
-        <v>6.536</v>
+        <v>6.621</v>
       </c>
       <c r="E68" t="n">
-        <v>6.464</v>
+        <v>6.621</v>
       </c>
       <c r="F68" t="n">
-        <v>24939.4884</v>
+        <v>39303.8774</v>
       </c>
       <c r="G68" t="n">
-        <v>-2709802.249434117</v>
+        <v>511707.9801266401</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +3085,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3100,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.546</v>
+        <v>6.621</v>
       </c>
       <c r="C69" t="n">
-        <v>6.688</v>
+        <v>6.621</v>
       </c>
       <c r="D69" t="n">
-        <v>6.688</v>
+        <v>6.621</v>
       </c>
       <c r="E69" t="n">
-        <v>6.546</v>
+        <v>6.621</v>
       </c>
       <c r="F69" t="n">
-        <v>89275.98970000001</v>
+        <v>28639.1573</v>
       </c>
       <c r="G69" t="n">
-        <v>-2620526.259734117</v>
+        <v>511707.9801266401</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2875,7 +3125,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3140,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.685</v>
+        <v>6.621</v>
       </c>
       <c r="C70" t="n">
-        <v>6.685</v>
+        <v>6.61</v>
       </c>
       <c r="D70" t="n">
-        <v>6.685</v>
+        <v>6.621</v>
       </c>
       <c r="E70" t="n">
-        <v>6.685</v>
+        <v>6.61</v>
       </c>
       <c r="F70" t="n">
-        <v>15363.0407</v>
+        <v>96331.3628</v>
       </c>
       <c r="G70" t="n">
-        <v>-2635889.300434117</v>
+        <v>415376.6173266401</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2911,7 +3165,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +3180,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.669</v>
+        <v>6.51</v>
       </c>
       <c r="C71" t="n">
-        <v>6.67</v>
+        <v>6.51</v>
       </c>
       <c r="D71" t="n">
-        <v>6.67</v>
+        <v>6.51</v>
       </c>
       <c r="E71" t="n">
-        <v>6.669</v>
+        <v>6.51</v>
       </c>
       <c r="F71" t="n">
-        <v>36311.9089</v>
+        <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>-2672201.209334117</v>
+        <v>405376.6173266401</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2947,7 +3205,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3220,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.684</v>
+        <v>6.51</v>
       </c>
       <c r="C72" t="n">
-        <v>6.684</v>
+        <v>6.51</v>
       </c>
       <c r="D72" t="n">
-        <v>6.684</v>
+        <v>6.51</v>
       </c>
       <c r="E72" t="n">
-        <v>6.684</v>
+        <v>6.51</v>
       </c>
       <c r="F72" t="n">
-        <v>54498.3415</v>
+        <v>9315.303900000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-2617702.867834117</v>
+        <v>405376.6173266401</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2983,7 +3245,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3260,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.67</v>
+        <v>6.488</v>
       </c>
       <c r="C73" t="n">
-        <v>6.474</v>
+        <v>6.4</v>
       </c>
       <c r="D73" t="n">
-        <v>6.67</v>
+        <v>6.488</v>
       </c>
       <c r="E73" t="n">
-        <v>6.474</v>
+        <v>6.4</v>
       </c>
       <c r="F73" t="n">
-        <v>174863.9043</v>
+        <v>484507.7045</v>
       </c>
       <c r="G73" t="n">
-        <v>-2792566.772134117</v>
+        <v>-79131.08717335993</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3019,7 +3285,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3300,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.642</v>
+        <v>6.351</v>
       </c>
       <c r="C74" t="n">
-        <v>6.642</v>
+        <v>6.319</v>
       </c>
       <c r="D74" t="n">
-        <v>6.642</v>
+        <v>6.351</v>
       </c>
       <c r="E74" t="n">
-        <v>6.642</v>
+        <v>6.319</v>
       </c>
       <c r="F74" t="n">
-        <v>77</v>
+        <v>500000</v>
       </c>
       <c r="G74" t="n">
-        <v>-2792489.772134117</v>
+        <v>-579131.0871733599</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3055,7 +3325,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3340,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.431</v>
+        <v>6.319</v>
       </c>
       <c r="C75" t="n">
-        <v>6.431</v>
+        <v>6.304</v>
       </c>
       <c r="D75" t="n">
-        <v>6.431</v>
+        <v>6.319</v>
       </c>
       <c r="E75" t="n">
-        <v>6.431</v>
+        <v>6.304</v>
       </c>
       <c r="F75" t="n">
-        <v>1472463.1586</v>
+        <v>608286.0844000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-4264952.930734117</v>
+        <v>-1187417.17157336</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3091,7 +3365,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,22 +3380,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.43</v>
+        <v>6.304</v>
       </c>
       <c r="C76" t="n">
-        <v>6.431</v>
+        <v>6.3</v>
       </c>
       <c r="D76" t="n">
-        <v>6.431</v>
+        <v>6.304</v>
       </c>
       <c r="E76" t="n">
-        <v>6.43</v>
+        <v>6.3</v>
       </c>
       <c r="F76" t="n">
-        <v>159768.1344</v>
+        <v>623778.3799000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-4264952.930734117</v>
+        <v>-1811195.55147336</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3127,7 +3405,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3420,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.632</v>
+        <v>6.452</v>
       </c>
       <c r="C77" t="n">
-        <v>6.632</v>
+        <v>6.303</v>
       </c>
       <c r="D77" t="n">
-        <v>6.632</v>
+        <v>6.453</v>
       </c>
       <c r="E77" t="n">
-        <v>6.632</v>
+        <v>6.303</v>
       </c>
       <c r="F77" t="n">
-        <v>77</v>
+        <v>35473.28386353634</v>
       </c>
       <c r="G77" t="n">
-        <v>-4264875.930734117</v>
+        <v>-1775722.267609824</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3163,7 +3445,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3460,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.632</v>
+        <v>6.303</v>
       </c>
       <c r="C78" t="n">
-        <v>6.5</v>
+        <v>6.61</v>
       </c>
       <c r="D78" t="n">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
       <c r="E78" t="n">
-        <v>6.5</v>
+        <v>6.303</v>
       </c>
       <c r="F78" t="n">
-        <v>463546.5031</v>
+        <v>8369.240675707231</v>
       </c>
       <c r="G78" t="n">
-        <v>-4728422.433834117</v>
+        <v>-1767353.026934117</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3199,7 +3485,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3500,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.65</v>
+        <v>6.5</v>
       </c>
       <c r="C79" t="n">
-        <v>6.65</v>
+        <v>6.5</v>
       </c>
       <c r="D79" t="n">
-        <v>6.65</v>
+        <v>6.5</v>
       </c>
       <c r="E79" t="n">
-        <v>6.65</v>
+        <v>6.5</v>
       </c>
       <c r="F79" t="n">
-        <v>77</v>
+        <v>7663.3881</v>
       </c>
       <c r="G79" t="n">
-        <v>-4728345.433834117</v>
+        <v>-1775016.415034117</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3235,7 +3525,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3246,22 +3540,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.619</v>
+        <v>6.577</v>
       </c>
       <c r="C80" t="n">
-        <v>6.619</v>
+        <v>6.577</v>
       </c>
       <c r="D80" t="n">
-        <v>6.619</v>
+        <v>6.577</v>
       </c>
       <c r="E80" t="n">
-        <v>6.619</v>
+        <v>6.577</v>
       </c>
       <c r="F80" t="n">
-        <v>298.2316</v>
+        <v>1518.0241</v>
       </c>
       <c r="G80" t="n">
-        <v>-4728643.665434116</v>
+        <v>-1773498.390934117</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3271,7 +3565,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3580,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.619</v>
+        <v>6.343</v>
       </c>
       <c r="C81" t="n">
-        <v>6.619</v>
+        <v>6.343</v>
       </c>
       <c r="D81" t="n">
-        <v>6.619</v>
+        <v>6.343</v>
       </c>
       <c r="E81" t="n">
-        <v>6.619</v>
+        <v>6.343</v>
       </c>
       <c r="F81" t="n">
-        <v>4520.4333</v>
+        <v>632.1900000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>-4728643.665434116</v>
+        <v>-1774130.580934117</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3307,7 +3605,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3620,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.61</v>
+        <v>6.544</v>
       </c>
       <c r="C82" t="n">
-        <v>6.619</v>
+        <v>6.544</v>
       </c>
       <c r="D82" t="n">
-        <v>6.619</v>
+        <v>6.544</v>
       </c>
       <c r="E82" t="n">
-        <v>6.61</v>
+        <v>6.544</v>
       </c>
       <c r="F82" t="n">
-        <v>202299.2964</v>
+        <v>6290</v>
       </c>
       <c r="G82" t="n">
-        <v>-4728643.665434116</v>
+        <v>-1767840.580934117</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3343,7 +3645,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3660,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.619</v>
+        <v>6.544</v>
       </c>
       <c r="C83" t="n">
-        <v>6.619</v>
+        <v>6.39</v>
       </c>
       <c r="D83" t="n">
-        <v>6.619</v>
+        <v>6.544</v>
       </c>
       <c r="E83" t="n">
-        <v>6.619</v>
+        <v>6.39</v>
       </c>
       <c r="F83" t="n">
-        <v>11024.4307</v>
+        <v>42925.7728</v>
       </c>
       <c r="G83" t="n">
-        <v>-4728643.665434116</v>
+        <v>-1810766.353734117</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3379,7 +3685,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3700,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.62</v>
+        <v>6.374</v>
       </c>
       <c r="C84" t="n">
-        <v>6.62</v>
+        <v>6.374</v>
       </c>
       <c r="D84" t="n">
-        <v>6.62</v>
+        <v>6.374</v>
       </c>
       <c r="E84" t="n">
-        <v>6.62</v>
+        <v>6.374</v>
       </c>
       <c r="F84" t="n">
-        <v>77</v>
+        <v>42868.8773</v>
       </c>
       <c r="G84" t="n">
-        <v>-4728566.665434116</v>
+        <v>-1853635.231034117</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3415,7 +3725,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3426,22 +3740,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.619</v>
+        <v>6.343</v>
       </c>
       <c r="C85" t="n">
-        <v>6.619</v>
+        <v>6.343</v>
       </c>
       <c r="D85" t="n">
-        <v>6.619</v>
+        <v>6.343</v>
       </c>
       <c r="E85" t="n">
-        <v>6.619</v>
+        <v>6.343</v>
       </c>
       <c r="F85" t="n">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="G85" t="n">
-        <v>-4728874.665434116</v>
+        <v>-1853714.231034117</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3451,7 +3765,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3462,22 +3780,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.619</v>
+        <v>6.369</v>
       </c>
       <c r="C86" t="n">
-        <v>6.619</v>
+        <v>6.33</v>
       </c>
       <c r="D86" t="n">
-        <v>6.619</v>
+        <v>6.369</v>
       </c>
       <c r="E86" t="n">
-        <v>6.619</v>
+        <v>6.33</v>
       </c>
       <c r="F86" t="n">
-        <v>28000</v>
+        <v>489450</v>
       </c>
       <c r="G86" t="n">
-        <v>-4728874.665434116</v>
+        <v>-2343164.231034117</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3487,7 +3805,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3820,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.62</v>
+        <v>6.33</v>
       </c>
       <c r="C87" t="n">
-        <v>6.62</v>
+        <v>6.33</v>
       </c>
       <c r="D87" t="n">
-        <v>6.62</v>
+        <v>6.33</v>
       </c>
       <c r="E87" t="n">
-        <v>6.62</v>
+        <v>6.33</v>
       </c>
       <c r="F87" t="n">
-        <v>7534.035</v>
+        <v>9190.165800000001</v>
       </c>
       <c r="G87" t="n">
-        <v>-4721340.630434116</v>
+        <v>-2343164.231034117</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3523,7 +3845,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3860,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.64</v>
+        <v>6.355</v>
       </c>
       <c r="C88" t="n">
-        <v>6.64</v>
+        <v>6.355</v>
       </c>
       <c r="D88" t="n">
-        <v>6.64</v>
+        <v>6.355</v>
       </c>
       <c r="E88" t="n">
-        <v>6.64</v>
+        <v>6.355</v>
       </c>
       <c r="F88" t="n">
-        <v>10295.7095</v>
+        <v>4376.7753</v>
       </c>
       <c r="G88" t="n">
-        <v>-4711044.920934116</v>
+        <v>-2338787.455734117</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3559,7 +3885,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3570,22 +3900,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.62</v>
+        <v>6.4</v>
       </c>
       <c r="C89" t="n">
-        <v>6.651</v>
+        <v>6.4</v>
       </c>
       <c r="D89" t="n">
-        <v>6.651</v>
+        <v>6.4</v>
       </c>
       <c r="E89" t="n">
-        <v>6.62</v>
+        <v>6.4</v>
       </c>
       <c r="F89" t="n">
-        <v>331112.8658</v>
+        <v>17893.2171</v>
       </c>
       <c r="G89" t="n">
-        <v>-4379932.055134117</v>
+        <v>-2320894.238634117</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3595,7 +3925,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3606,22 +3940,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.651</v>
+        <v>6.4</v>
       </c>
       <c r="C90" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="D90" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="E90" t="n">
-        <v>6.651</v>
+        <v>6.4</v>
       </c>
       <c r="F90" t="n">
-        <v>3170160.3532</v>
+        <v>78.3</v>
       </c>
       <c r="G90" t="n">
-        <v>-1209771.701934117</v>
+        <v>-2320894.238634117</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3631,7 +3965,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3642,22 +3980,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.119</v>
+        <v>6.401</v>
       </c>
       <c r="C91" t="n">
-        <v>6.672</v>
+        <v>6.401</v>
       </c>
       <c r="D91" t="n">
-        <v>7.147</v>
+        <v>6.401</v>
       </c>
       <c r="E91" t="n">
-        <v>6.672</v>
+        <v>6.401</v>
       </c>
       <c r="F91" t="n">
-        <v>295465.9373</v>
+        <v>1871.8316</v>
       </c>
       <c r="G91" t="n">
-        <v>-1505237.639234117</v>
+        <v>-2319022.407034117</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3667,7 +4005,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3678,22 +4020,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.13</v>
+        <v>6.401</v>
       </c>
       <c r="C92" t="n">
-        <v>7.13</v>
+        <v>6.4</v>
       </c>
       <c r="D92" t="n">
-        <v>7.13</v>
+        <v>6.463</v>
       </c>
       <c r="E92" t="n">
-        <v>7.13</v>
+        <v>6.4</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>348571.9706</v>
       </c>
       <c r="G92" t="n">
-        <v>-1505137.639234117</v>
+        <v>-2667594.377634117</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3703,7 +4045,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3714,22 +4060,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.13</v>
+        <v>6.464</v>
       </c>
       <c r="C93" t="n">
-        <v>7.13</v>
+        <v>6.464</v>
       </c>
       <c r="D93" t="n">
-        <v>7.13</v>
+        <v>6.464</v>
       </c>
       <c r="E93" t="n">
-        <v>7.13</v>
+        <v>6.464</v>
       </c>
       <c r="F93" t="n">
-        <v>571.6438000000001</v>
+        <v>7070</v>
       </c>
       <c r="G93" t="n">
-        <v>-1505137.639234117</v>
+        <v>-2660524.377634117</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3739,7 +4085,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3750,22 +4100,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.13</v>
+        <v>6.41</v>
       </c>
       <c r="C94" t="n">
-        <v>7.13</v>
+        <v>6.41</v>
       </c>
       <c r="D94" t="n">
-        <v>7.13</v>
+        <v>6.41</v>
       </c>
       <c r="E94" t="n">
-        <v>7.13</v>
+        <v>6.41</v>
       </c>
       <c r="F94" t="n">
-        <v>1259.1242</v>
+        <v>15930.3074</v>
       </c>
       <c r="G94" t="n">
-        <v>-1505137.639234117</v>
+        <v>-2676454.685034117</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3775,7 +4125,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3786,22 +4140,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.911</v>
+        <v>6.405</v>
       </c>
       <c r="C95" t="n">
-        <v>6.911</v>
+        <v>6.405</v>
       </c>
       <c r="D95" t="n">
-        <v>6.911</v>
+        <v>6.405</v>
       </c>
       <c r="E95" t="n">
-        <v>6.911</v>
+        <v>6.405</v>
       </c>
       <c r="F95" t="n">
-        <v>29886.147</v>
+        <v>66756.9777</v>
       </c>
       <c r="G95" t="n">
-        <v>-1535023.786234117</v>
+        <v>-2743211.662734117</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3811,7 +4165,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3822,22 +4180,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.911</v>
+        <v>6.464</v>
       </c>
       <c r="C96" t="n">
-        <v>6.911</v>
+        <v>6.464</v>
       </c>
       <c r="D96" t="n">
-        <v>6.911</v>
+        <v>6.464</v>
       </c>
       <c r="E96" t="n">
-        <v>6.911</v>
+        <v>6.464</v>
       </c>
       <c r="F96" t="n">
-        <v>28649.978</v>
+        <v>8469.9249</v>
       </c>
       <c r="G96" t="n">
-        <v>-1535023.786234117</v>
+        <v>-2734741.737834117</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3847,7 +4205,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3858,22 +4220,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.91</v>
+        <v>6.464</v>
       </c>
       <c r="C97" t="n">
-        <v>6.91</v>
+        <v>6.536</v>
       </c>
       <c r="D97" t="n">
-        <v>6.91</v>
+        <v>6.536</v>
       </c>
       <c r="E97" t="n">
-        <v>6.91</v>
+        <v>6.464</v>
       </c>
       <c r="F97" t="n">
-        <v>1447</v>
+        <v>24939.4884</v>
       </c>
       <c r="G97" t="n">
-        <v>-1536470.786234117</v>
+        <v>-2709802.249434117</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3883,7 +4245,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +4260,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.91</v>
+        <v>6.546</v>
       </c>
       <c r="C98" t="n">
-        <v>6.91</v>
+        <v>6.688</v>
       </c>
       <c r="D98" t="n">
-        <v>6.91</v>
+        <v>6.688</v>
       </c>
       <c r="E98" t="n">
-        <v>6.91</v>
+        <v>6.546</v>
       </c>
       <c r="F98" t="n">
-        <v>998.4</v>
+        <v>89275.98970000001</v>
       </c>
       <c r="G98" t="n">
-        <v>-1536470.786234117</v>
+        <v>-2620526.259734117</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3919,7 +4285,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +4300,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.901</v>
+        <v>6.685</v>
       </c>
       <c r="C99" t="n">
-        <v>6.901</v>
+        <v>6.685</v>
       </c>
       <c r="D99" t="n">
-        <v>6.901</v>
+        <v>6.685</v>
       </c>
       <c r="E99" t="n">
-        <v>6.901</v>
+        <v>6.685</v>
       </c>
       <c r="F99" t="n">
-        <v>410.4061</v>
+        <v>15363.0407</v>
       </c>
       <c r="G99" t="n">
-        <v>-1536881.192334117</v>
+        <v>-2635889.300434117</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3955,7 +4325,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3966,22 +4340,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.901</v>
+        <v>6.669</v>
       </c>
       <c r="C100" t="n">
-        <v>6.901</v>
+        <v>6.67</v>
       </c>
       <c r="D100" t="n">
-        <v>6.901</v>
+        <v>6.67</v>
       </c>
       <c r="E100" t="n">
-        <v>6.901</v>
+        <v>6.669</v>
       </c>
       <c r="F100" t="n">
-        <v>2929.7277</v>
+        <v>36311.9089</v>
       </c>
       <c r="G100" t="n">
-        <v>-1536881.192334117</v>
+        <v>-2672201.209334117</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3991,7 +4365,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4002,22 +4380,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.82</v>
+        <v>6.684</v>
       </c>
       <c r="C101" t="n">
-        <v>6.82</v>
+        <v>6.684</v>
       </c>
       <c r="D101" t="n">
-        <v>6.82</v>
+        <v>6.684</v>
       </c>
       <c r="E101" t="n">
-        <v>6.82</v>
+        <v>6.684</v>
       </c>
       <c r="F101" t="n">
-        <v>42276.125</v>
+        <v>54498.3415</v>
       </c>
       <c r="G101" t="n">
-        <v>-1579157.317334117</v>
+        <v>-2617702.867834117</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4027,7 +4405,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4420,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.82</v>
+        <v>6.67</v>
       </c>
       <c r="C102" t="n">
-        <v>6.81</v>
+        <v>6.474</v>
       </c>
       <c r="D102" t="n">
-        <v>6.82</v>
+        <v>6.67</v>
       </c>
       <c r="E102" t="n">
-        <v>6.81</v>
+        <v>6.474</v>
       </c>
       <c r="F102" t="n">
-        <v>7939.5161</v>
+        <v>174863.9043</v>
       </c>
       <c r="G102" t="n">
-        <v>-1587096.833434117</v>
+        <v>-2792566.772134117</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4063,7 +4445,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +4460,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.711</v>
+        <v>6.642</v>
       </c>
       <c r="C103" t="n">
-        <v>6.711</v>
+        <v>6.642</v>
       </c>
       <c r="D103" t="n">
-        <v>6.711</v>
+        <v>6.642</v>
       </c>
       <c r="E103" t="n">
-        <v>6.711</v>
+        <v>6.642</v>
       </c>
       <c r="F103" t="n">
-        <v>1468</v>
+        <v>77</v>
       </c>
       <c r="G103" t="n">
-        <v>-1588564.833434117</v>
+        <v>-2792489.772134117</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4099,7 +4485,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4110,22 +4500,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.701</v>
+        <v>6.431</v>
       </c>
       <c r="C104" t="n">
-        <v>6.702</v>
+        <v>6.431</v>
       </c>
       <c r="D104" t="n">
-        <v>6.702</v>
+        <v>6.431</v>
       </c>
       <c r="E104" t="n">
-        <v>6.701</v>
+        <v>6.431</v>
       </c>
       <c r="F104" t="n">
-        <v>165350.916</v>
+        <v>1472463.1586</v>
       </c>
       <c r="G104" t="n">
-        <v>-1753915.749434117</v>
+        <v>-4264952.930734117</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4135,7 +4525,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4146,22 +4540,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.753</v>
+        <v>6.43</v>
       </c>
       <c r="C105" t="n">
-        <v>6.753</v>
+        <v>6.431</v>
       </c>
       <c r="D105" t="n">
-        <v>6.753</v>
+        <v>6.431</v>
       </c>
       <c r="E105" t="n">
-        <v>6.753</v>
+        <v>6.43</v>
       </c>
       <c r="F105" t="n">
-        <v>148532</v>
+        <v>159768.1344</v>
       </c>
       <c r="G105" t="n">
-        <v>-1605383.749434117</v>
+        <v>-4264952.930734117</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4171,7 +4565,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4182,22 +4580,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.753</v>
+        <v>6.632</v>
       </c>
       <c r="C106" t="n">
-        <v>6.752</v>
+        <v>6.632</v>
       </c>
       <c r="D106" t="n">
-        <v>6.799</v>
+        <v>6.632</v>
       </c>
       <c r="E106" t="n">
-        <v>6.752</v>
+        <v>6.632</v>
       </c>
       <c r="F106" t="n">
-        <v>93894.71189999999</v>
+        <v>77</v>
       </c>
       <c r="G106" t="n">
-        <v>-1699278.461334117</v>
+        <v>-4264875.930734117</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4207,7 +4605,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4620,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.752</v>
+        <v>6.632</v>
       </c>
       <c r="C107" t="n">
-        <v>6.72</v>
+        <v>6.5</v>
       </c>
       <c r="D107" t="n">
-        <v>6.752</v>
+        <v>6.64</v>
       </c>
       <c r="E107" t="n">
-        <v>6.72</v>
+        <v>6.5</v>
       </c>
       <c r="F107" t="n">
-        <v>60000</v>
+        <v>463546.5031</v>
       </c>
       <c r="G107" t="n">
-        <v>-1759278.461334117</v>
+        <v>-4728422.433834117</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4243,7 +4645,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4254,22 +4660,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.72</v>
+        <v>6.65</v>
       </c>
       <c r="C108" t="n">
-        <v>6.72</v>
+        <v>6.65</v>
       </c>
       <c r="D108" t="n">
-        <v>6.72</v>
+        <v>6.65</v>
       </c>
       <c r="E108" t="n">
-        <v>6.72</v>
+        <v>6.65</v>
       </c>
       <c r="F108" t="n">
-        <v>400666.8714</v>
+        <v>77</v>
       </c>
       <c r="G108" t="n">
-        <v>-1759278.461334117</v>
+        <v>-4728345.433834117</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4279,7 +4685,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4290,22 +4700,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.712</v>
+        <v>6.619</v>
       </c>
       <c r="C109" t="n">
-        <v>6.712</v>
+        <v>6.619</v>
       </c>
       <c r="D109" t="n">
-        <v>6.712</v>
+        <v>6.619</v>
       </c>
       <c r="E109" t="n">
-        <v>6.712</v>
+        <v>6.619</v>
       </c>
       <c r="F109" t="n">
-        <v>5064.1844</v>
+        <v>298.2316</v>
       </c>
       <c r="G109" t="n">
-        <v>-1764342.645734117</v>
+        <v>-4728643.665434116</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4315,7 +4725,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4326,22 +4740,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="C110" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="D110" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="E110" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="F110" t="n">
-        <v>124899.7491</v>
+        <v>4520.4333</v>
       </c>
       <c r="G110" t="n">
-        <v>-1639442.896634117</v>
+        <v>-4728643.665434116</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4351,7 +4765,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4362,22 +4780,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.72</v>
+        <v>6.61</v>
       </c>
       <c r="C111" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="D111" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="E111" t="n">
-        <v>6.72</v>
+        <v>6.61</v>
       </c>
       <c r="F111" t="n">
-        <v>32006.9721</v>
+        <v>202299.2964</v>
       </c>
       <c r="G111" t="n">
-        <v>-1639442.896634117</v>
+        <v>-4728643.665434116</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4387,7 +4805,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4398,22 +4820,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="C112" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="D112" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="E112" t="n">
-        <v>6.72</v>
+        <v>6.619</v>
       </c>
       <c r="F112" t="n">
-        <v>13226.1685</v>
+        <v>11024.4307</v>
       </c>
       <c r="G112" t="n">
-        <v>-1639442.896634117</v>
+        <v>-4728643.665434116</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4423,7 +4845,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4434,22 +4860,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.75</v>
+        <v>6.62</v>
       </c>
       <c r="C113" t="n">
-        <v>6.75</v>
+        <v>6.62</v>
       </c>
       <c r="D113" t="n">
-        <v>6.75</v>
+        <v>6.62</v>
       </c>
       <c r="E113" t="n">
-        <v>6.75</v>
+        <v>6.62</v>
       </c>
       <c r="F113" t="n">
-        <v>717.2764</v>
+        <v>77</v>
       </c>
       <c r="G113" t="n">
-        <v>-1638725.620234117</v>
+        <v>-4728566.665434116</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4459,7 +4885,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4470,22 +4900,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.74</v>
+        <v>6.619</v>
       </c>
       <c r="C114" t="n">
-        <v>6.74</v>
+        <v>6.619</v>
       </c>
       <c r="D114" t="n">
-        <v>6.74</v>
+        <v>6.619</v>
       </c>
       <c r="E114" t="n">
-        <v>6.74</v>
+        <v>6.619</v>
       </c>
       <c r="F114" t="n">
-        <v>29871.6961</v>
+        <v>308</v>
       </c>
       <c r="G114" t="n">
-        <v>-1668597.316334117</v>
+        <v>-4728874.665434116</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4495,7 +4925,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4506,22 +4940,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.74</v>
+        <v>6.619</v>
       </c>
       <c r="C115" t="n">
-        <v>6.74</v>
+        <v>6.619</v>
       </c>
       <c r="D115" t="n">
-        <v>6.74</v>
+        <v>6.619</v>
       </c>
       <c r="E115" t="n">
-        <v>6.74</v>
+        <v>6.619</v>
       </c>
       <c r="F115" t="n">
-        <v>305.6957</v>
+        <v>28000</v>
       </c>
       <c r="G115" t="n">
-        <v>-1668597.316334117</v>
+        <v>-4728874.665434116</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4531,7 +4965,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4980,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.74</v>
+        <v>6.62</v>
       </c>
       <c r="C116" t="n">
-        <v>6.74</v>
+        <v>6.62</v>
       </c>
       <c r="D116" t="n">
-        <v>6.74</v>
+        <v>6.62</v>
       </c>
       <c r="E116" t="n">
-        <v>6.74</v>
+        <v>6.62</v>
       </c>
       <c r="F116" t="n">
-        <v>11092</v>
+        <v>7534.035</v>
       </c>
       <c r="G116" t="n">
-        <v>-1668597.316334117</v>
+        <v>-4721340.630434116</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4567,7 +5005,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +5020,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.74</v>
+        <v>6.64</v>
       </c>
       <c r="C117" t="n">
-        <v>6.721</v>
+        <v>6.64</v>
       </c>
       <c r="D117" t="n">
-        <v>6.74</v>
+        <v>6.64</v>
       </c>
       <c r="E117" t="n">
-        <v>6.721</v>
+        <v>6.64</v>
       </c>
       <c r="F117" t="n">
-        <v>74126.99490000001</v>
+        <v>10295.7095</v>
       </c>
       <c r="G117" t="n">
-        <v>-1742724.311234117</v>
+        <v>-4711044.920934116</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4603,7 +5045,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4614,22 +5060,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.71</v>
+        <v>6.62</v>
       </c>
       <c r="C118" t="n">
-        <v>6.71</v>
+        <v>6.651</v>
       </c>
       <c r="D118" t="n">
-        <v>6.71</v>
+        <v>6.651</v>
       </c>
       <c r="E118" t="n">
-        <v>6.71</v>
+        <v>6.62</v>
       </c>
       <c r="F118" t="n">
-        <v>13151.7818</v>
+        <v>331112.8658</v>
       </c>
       <c r="G118" t="n">
-        <v>-1755876.093034117</v>
+        <v>-4379932.055134117</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4639,7 +5085,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4650,22 +5100,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.721</v>
+        <v>6.651</v>
       </c>
       <c r="C119" t="n">
-        <v>6.721</v>
+        <v>7.1</v>
       </c>
       <c r="D119" t="n">
-        <v>6.721</v>
+        <v>7.1</v>
       </c>
       <c r="E119" t="n">
-        <v>6.721</v>
+        <v>6.651</v>
       </c>
       <c r="F119" t="n">
-        <v>131.626</v>
+        <v>3170160.3532</v>
       </c>
       <c r="G119" t="n">
-        <v>-1755744.467034117</v>
+        <v>-1209771.701934117</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4675,7 +5125,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4686,36 +5140,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.721</v>
+        <v>7.119</v>
       </c>
       <c r="C120" t="n">
-        <v>6.721</v>
+        <v>6.672</v>
       </c>
       <c r="D120" t="n">
-        <v>6.721</v>
+        <v>7.147</v>
       </c>
       <c r="E120" t="n">
-        <v>6.721</v>
+        <v>6.672</v>
       </c>
       <c r="F120" t="n">
-        <v>5000</v>
+        <v>295465.9373</v>
       </c>
       <c r="G120" t="n">
-        <v>-1755744.467034117</v>
+        <v>-1505237.639234117</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="K120" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4726,38 +5180,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.711</v>
+        <v>7.13</v>
       </c>
       <c r="C121" t="n">
-        <v>6.69</v>
+        <v>7.13</v>
       </c>
       <c r="D121" t="n">
-        <v>6.711</v>
+        <v>7.13</v>
       </c>
       <c r="E121" t="n">
-        <v>6.69</v>
+        <v>7.13</v>
       </c>
       <c r="F121" t="n">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>-1855744.467034117</v>
+        <v>-1505137.639234117</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="K121" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -4770,35 +5220,31 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.71</v>
+        <v>7.13</v>
       </c>
       <c r="C122" t="n">
-        <v>6.71</v>
+        <v>7.13</v>
       </c>
       <c r="D122" t="n">
-        <v>6.71</v>
+        <v>7.13</v>
       </c>
       <c r="E122" t="n">
-        <v>6.71</v>
+        <v>7.13</v>
       </c>
       <c r="F122" t="n">
-        <v>1902.2687</v>
+        <v>571.6438000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>-1853842.198334117</v>
+        <v>-1505137.639234117</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="K122" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4814,22 +5260,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.676</v>
+        <v>7.13</v>
       </c>
       <c r="C123" t="n">
-        <v>6.676</v>
+        <v>7.13</v>
       </c>
       <c r="D123" t="n">
-        <v>6.676</v>
+        <v>7.13</v>
       </c>
       <c r="E123" t="n">
-        <v>6.676</v>
+        <v>7.13</v>
       </c>
       <c r="F123" t="n">
-        <v>3895.4926</v>
+        <v>1259.1242</v>
       </c>
       <c r="G123" t="n">
-        <v>-1857737.690934117</v>
+        <v>-1505137.639234117</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4838,9 +5284,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,22 +5300,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.71</v>
+        <v>6.911</v>
       </c>
       <c r="C124" t="n">
-        <v>6.71</v>
+        <v>6.911</v>
       </c>
       <c r="D124" t="n">
-        <v>6.71</v>
+        <v>6.911</v>
       </c>
       <c r="E124" t="n">
-        <v>6.71</v>
+        <v>6.911</v>
       </c>
       <c r="F124" t="n">
-        <v>158.987</v>
+        <v>29886.147</v>
       </c>
       <c r="G124" t="n">
-        <v>-1857578.703934117</v>
+        <v>-1535023.786234117</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4880,9 +5324,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4898,22 +5340,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.71</v>
+        <v>6.911</v>
       </c>
       <c r="C125" t="n">
-        <v>6.71</v>
+        <v>6.911</v>
       </c>
       <c r="D125" t="n">
-        <v>6.71</v>
+        <v>6.911</v>
       </c>
       <c r="E125" t="n">
-        <v>6.71</v>
+        <v>6.911</v>
       </c>
       <c r="F125" t="n">
-        <v>6823.2117</v>
+        <v>28649.978</v>
       </c>
       <c r="G125" t="n">
-        <v>-1857578.703934117</v>
+        <v>-1535023.786234117</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4922,9 +5364,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,22 +5380,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.676</v>
+        <v>6.91</v>
       </c>
       <c r="C126" t="n">
-        <v>6.676</v>
+        <v>6.91</v>
       </c>
       <c r="D126" t="n">
-        <v>6.676</v>
+        <v>6.91</v>
       </c>
       <c r="E126" t="n">
-        <v>6.676</v>
+        <v>6.91</v>
       </c>
       <c r="F126" t="n">
-        <v>36000</v>
+        <v>1447</v>
       </c>
       <c r="G126" t="n">
-        <v>-1893578.703934117</v>
+        <v>-1536470.786234117</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4964,9 +5404,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,22 +5420,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.676</v>
+        <v>6.91</v>
       </c>
       <c r="C127" t="n">
-        <v>6.676</v>
+        <v>6.91</v>
       </c>
       <c r="D127" t="n">
-        <v>6.676</v>
+        <v>6.91</v>
       </c>
       <c r="E127" t="n">
-        <v>6.676</v>
+        <v>6.91</v>
       </c>
       <c r="F127" t="n">
-        <v>101023.1997</v>
+        <v>998.4</v>
       </c>
       <c r="G127" t="n">
-        <v>-1893578.703934117</v>
+        <v>-1536470.786234117</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5006,9 +5444,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,22 +5460,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.71</v>
+        <v>6.901</v>
       </c>
       <c r="C128" t="n">
-        <v>6.71</v>
+        <v>6.901</v>
       </c>
       <c r="D128" t="n">
-        <v>6.71</v>
+        <v>6.901</v>
       </c>
       <c r="E128" t="n">
-        <v>6.71</v>
+        <v>6.901</v>
       </c>
       <c r="F128" t="n">
-        <v>29855.1528</v>
+        <v>410.4061</v>
       </c>
       <c r="G128" t="n">
-        <v>-1863723.551134117</v>
+        <v>-1536881.192334117</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5048,9 +5484,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5066,22 +5500,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.69</v>
+        <v>6.901</v>
       </c>
       <c r="C129" t="n">
-        <v>6.71</v>
+        <v>6.901</v>
       </c>
       <c r="D129" t="n">
-        <v>6.71</v>
+        <v>6.901</v>
       </c>
       <c r="E129" t="n">
-        <v>6.69</v>
+        <v>6.901</v>
       </c>
       <c r="F129" t="n">
-        <v>54132.702</v>
+        <v>2929.7277</v>
       </c>
       <c r="G129" t="n">
-        <v>-1863723.551134117</v>
+        <v>-1536881.192334117</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5090,9 +5524,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5108,22 +5540,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.721</v>
+        <v>6.82</v>
       </c>
       <c r="C130" t="n">
-        <v>6.721</v>
+        <v>6.82</v>
       </c>
       <c r="D130" t="n">
-        <v>6.721</v>
+        <v>6.82</v>
       </c>
       <c r="E130" t="n">
-        <v>6.721</v>
+        <v>6.82</v>
       </c>
       <c r="F130" t="n">
-        <v>71903.9256</v>
+        <v>42276.125</v>
       </c>
       <c r="G130" t="n">
-        <v>-1791819.625534117</v>
+        <v>-1579157.317334117</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5132,9 +5564,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,22 +5580,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.721</v>
+        <v>6.82</v>
       </c>
       <c r="C131" t="n">
-        <v>6.721</v>
+        <v>6.81</v>
       </c>
       <c r="D131" t="n">
-        <v>6.721</v>
+        <v>6.82</v>
       </c>
       <c r="E131" t="n">
-        <v>6.721</v>
+        <v>6.81</v>
       </c>
       <c r="F131" t="n">
-        <v>6000</v>
+        <v>7939.5161</v>
       </c>
       <c r="G131" t="n">
-        <v>-1791819.625534117</v>
+        <v>-1587096.833434117</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5174,9 +5604,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5192,22 +5620,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.71</v>
+        <v>6.711</v>
       </c>
       <c r="C132" t="n">
-        <v>6.676</v>
+        <v>6.711</v>
       </c>
       <c r="D132" t="n">
-        <v>6.71</v>
+        <v>6.711</v>
       </c>
       <c r="E132" t="n">
-        <v>6.676</v>
+        <v>6.711</v>
       </c>
       <c r="F132" t="n">
-        <v>227184.0824</v>
+        <v>1468</v>
       </c>
       <c r="G132" t="n">
-        <v>-2019003.707934117</v>
+        <v>-1588564.833434117</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5216,9 +5644,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5234,22 +5660,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.71</v>
+        <v>6.701</v>
       </c>
       <c r="C133" t="n">
-        <v>6.71</v>
+        <v>6.702</v>
       </c>
       <c r="D133" t="n">
-        <v>6.71</v>
+        <v>6.702</v>
       </c>
       <c r="E133" t="n">
-        <v>6.71</v>
+        <v>6.701</v>
       </c>
       <c r="F133" t="n">
-        <v>38379.0872</v>
+        <v>165350.916</v>
       </c>
       <c r="G133" t="n">
-        <v>-1980624.620734117</v>
+        <v>-1753915.749434117</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5258,9 +5684,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5276,22 +5700,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.71</v>
+        <v>6.753</v>
       </c>
       <c r="C134" t="n">
-        <v>6.677</v>
+        <v>6.753</v>
       </c>
       <c r="D134" t="n">
-        <v>6.71</v>
+        <v>6.753</v>
       </c>
       <c r="E134" t="n">
-        <v>6.677</v>
+        <v>6.753</v>
       </c>
       <c r="F134" t="n">
-        <v>131108.1925</v>
+        <v>148532</v>
       </c>
       <c r="G134" t="n">
-        <v>-2111732.813234117</v>
+        <v>-1605383.749434117</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5300,9 +5724,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,22 +5740,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.71</v>
+        <v>6.753</v>
       </c>
       <c r="C135" t="n">
-        <v>6.71</v>
+        <v>6.752</v>
       </c>
       <c r="D135" t="n">
-        <v>6.71</v>
+        <v>6.799</v>
       </c>
       <c r="E135" t="n">
-        <v>6.71</v>
+        <v>6.752</v>
       </c>
       <c r="F135" t="n">
-        <v>2973.0502</v>
+        <v>93894.71189999999</v>
       </c>
       <c r="G135" t="n">
-        <v>-2108759.763034117</v>
+        <v>-1699278.461334117</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5342,9 +5764,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5360,35 +5780,31 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.71</v>
+        <v>6.752</v>
       </c>
       <c r="C136" t="n">
-        <v>6.721</v>
+        <v>6.72</v>
       </c>
       <c r="D136" t="n">
-        <v>6.721</v>
+        <v>6.752</v>
       </c>
       <c r="E136" t="n">
-        <v>6.71</v>
+        <v>6.72</v>
       </c>
       <c r="F136" t="n">
-        <v>163976.6452</v>
+        <v>60000</v>
       </c>
       <c r="G136" t="n">
-        <v>-1944783.117834117</v>
+        <v>-1759278.461334117</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="K136" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,22 +5820,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.721</v>
+        <v>6.72</v>
       </c>
       <c r="C137" t="n">
-        <v>6.721</v>
+        <v>6.72</v>
       </c>
       <c r="D137" t="n">
-        <v>6.721</v>
+        <v>6.72</v>
       </c>
       <c r="E137" t="n">
-        <v>6.721</v>
+        <v>6.72</v>
       </c>
       <c r="F137" t="n">
-        <v>52361.5736</v>
+        <v>400666.8714</v>
       </c>
       <c r="G137" t="n">
-        <v>-1944783.117834117</v>
+        <v>-1759278.461334117</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5428,9 +5844,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>6.721</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5446,42 +5860,1138 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>6.712</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.712</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.712</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6.712</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5064.1844</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1764342.645734117</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F139" t="n">
+        <v>124899.7491</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1639442.896634117</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F140" t="n">
+        <v>32006.9721</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1639442.896634117</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13226.1685</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1639442.896634117</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F142" t="n">
+        <v>717.2764</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1638725.620234117</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29871.6961</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1668597.316334117</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F144" t="n">
+        <v>305.6957</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1668597.316334117</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11092</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1668597.316334117</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="F146" t="n">
+        <v>74126.99490000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1742724.311234117</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F147" t="n">
+        <v>13151.7818</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1755876.093034117</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="F148" t="n">
+        <v>131.626</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1755744.467034117</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1755744.467034117</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.711</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.711</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1855744.467034117</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1902.2687</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1853842.198334117</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3895.4926</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1857737.690934117</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F153" t="n">
+        <v>158.987</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1857578.703934117</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6823.2117</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1857578.703934117</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="F155" t="n">
+        <v>36000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1893578.703934117</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="F156" t="n">
+        <v>101023.1997</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1893578.703934117</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F157" t="n">
+        <v>29855.1528</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1863723.551134117</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="F158" t="n">
+        <v>54132.702</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1863723.551134117</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="F159" t="n">
+        <v>71903.9256</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1791819.625534117</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1791819.625534117</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="F161" t="n">
+        <v>227184.0824</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2019003.707934117</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F162" t="n">
+        <v>38379.0872</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1980624.620734117</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="F163" t="n">
+        <v>131108.1925</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2111732.813234117</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2973.0502</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2108759.763034117</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F165" t="n">
+        <v>163976.6452</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1944783.117834117</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="F166" t="n">
+        <v>52361.5736</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1944783.117834117</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>6.73</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C167" t="n">
         <v>6.73</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D167" t="n">
         <v>6.73</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E167" t="n">
         <v>6.73</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F167" t="n">
         <v>100</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G167" t="n">
         <v>-1944683.117834117</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-16 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,21 @@
         <v>-819477.8198000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.33</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +589,21 @@
         <v>-814848.2086</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.325</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +628,21 @@
         <v>-814848.2086</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6.435</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +669,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +706,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +743,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +780,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,24 +815,21 @@
         <v>-1005863.4145</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>6.333</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -858,24 +854,21 @@
         <v>-831029.1324</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>6.33</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,24 +893,21 @@
         <v>-873548.0615</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>6.334</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,24 +932,21 @@
         <v>-873548.0615</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>6.33</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -984,24 +971,21 @@
         <v>-885934.1697</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>6.33</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1026,24 +1010,21 @@
         <v>-918132.7045999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>6.326</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,24 +1049,21 @@
         <v>-914875.7045999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>6.325</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1110,24 +1088,21 @@
         <v>-928294.0957999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>6.334</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,24 +1127,21 @@
         <v>-845514.9031999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
         <v>6.333</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1194,24 +1166,21 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>6.334</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1236,24 +1205,21 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>6.446</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1280,20 +1246,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1320,20 +1283,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1360,20 +1320,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1400,20 +1357,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1440,20 +1394,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1480,20 +1431,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1520,20 +1468,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1560,20 +1505,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1600,20 +1542,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1640,20 +1579,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1680,20 +1616,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1720,20 +1653,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1760,20 +1690,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1800,20 +1727,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1840,20 +1764,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1880,20 +1801,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1920,20 +1838,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1960,20 +1875,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2000,20 +1912,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2038,22 +1947,17 @@
         <v>344504.8725000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2078,22 +1982,15 @@
         <v>344504.8725000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2118,22 +2015,15 @@
         <v>344591.2100000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2158,22 +2048,15 @@
         <v>344591.2100000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2198,22 +2081,15 @@
         <v>344591.2100000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2238,22 +2114,15 @@
         <v>344591.2100000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2278,22 +2147,15 @@
         <v>314987.3003000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2318,22 +2180,15 @@
         <v>295632.4195000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2358,22 +2213,15 @@
         <v>295632.4195000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2398,22 +2246,15 @@
         <v>290632.4195000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2438,22 +2279,15 @@
         <v>439381.50992664</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2478,22 +2312,15 @@
         <v>435716.60582664</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2520,20 +2347,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2560,20 +2380,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2600,20 +2413,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2640,20 +2446,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2680,20 +2479,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2720,20 +2512,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2758,22 +2543,15 @@
         <v>388616.2747602201</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2798,22 +2576,15 @@
         <v>391616.2747602201</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2838,22 +2609,15 @@
         <v>370642.0013602201</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2878,22 +2642,15 @@
         <v>370642.0013602201</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2920,20 +2677,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2960,20 +2710,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3000,20 +2743,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3040,20 +2776,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3080,20 +2809,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3120,20 +2842,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3158,22 +2873,15 @@
         <v>415376.6173266401</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3198,22 +2906,15 @@
         <v>405376.6173266401</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3238,22 +2939,15 @@
         <v>405376.6173266401</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3278,22 +2972,15 @@
         <v>-79131.08717335993</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3318,22 +3005,15 @@
         <v>-579131.0871733599</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3360,20 +3040,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3400,20 +3073,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3440,20 +3106,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3480,20 +3139,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3520,20 +3172,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3560,20 +3205,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3600,20 +3238,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3640,20 +3271,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3680,20 +3304,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3720,20 +3337,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3760,20 +3370,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3800,20 +3403,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3840,20 +3436,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3880,20 +3469,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3920,20 +3502,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3960,20 +3535,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4000,20 +3568,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4040,20 +3601,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4080,20 +3634,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4120,20 +3667,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4160,20 +3700,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4198,22 +3731,15 @@
         <v>-2734741.737834117</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4240,20 +3766,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4280,20 +3799,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4320,20 +3832,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4358,22 +3863,15 @@
         <v>-2672201.209334117</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4398,22 +3896,15 @@
         <v>-2617702.867834117</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4438,22 +3929,15 @@
         <v>-2792566.772134117</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4480,20 +3964,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4520,20 +3997,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4560,20 +4030,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4600,20 +4063,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4640,20 +4096,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4680,20 +4129,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4720,20 +4162,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4760,20 +4195,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4800,20 +4228,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4840,20 +4261,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4880,20 +4294,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4920,20 +4327,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4960,20 +4360,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5000,20 +4393,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5040,20 +4426,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5080,20 +4459,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5120,20 +4492,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5158,22 +4523,15 @@
         <v>-1505237.639234117</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5198,22 +4556,15 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5238,22 +4589,15 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5278,22 +4622,15 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5318,22 +4655,15 @@
         <v>-1535023.786234117</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5360,20 +4690,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5400,20 +4723,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5440,20 +4756,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5480,20 +4789,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5520,20 +4822,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5560,20 +4855,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5600,20 +4888,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5640,20 +4921,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5680,20 +4954,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5720,20 +4987,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5760,20 +5020,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5800,20 +5053,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5840,20 +5086,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5880,20 +5119,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5920,20 +5152,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5960,20 +5185,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6000,20 +5218,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6040,20 +5251,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6080,20 +5284,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6120,20 +5317,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6160,20 +5350,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6200,20 +5383,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6238,22 +5414,15 @@
         <v>-1755876.093034117</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6278,22 +5447,15 @@
         <v>-1755744.467034117</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6318,22 +5480,15 @@
         <v>-1755744.467034117</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6360,20 +5515,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6400,20 +5548,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6440,18 +5581,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L152" t="n">
+        <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6478,16 +5614,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6514,16 +5647,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6550,16 +5680,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6586,16 +5713,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6622,16 +5746,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6658,16 +5779,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6692,18 +5810,15 @@
         <v>-1791819.625534117</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6728,18 +5843,15 @@
         <v>-1791819.625534117</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6764,18 +5876,15 @@
         <v>-2019003.707934117</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6800,18 +5909,15 @@
         <v>-1980624.620734117</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6836,18 +5942,15 @@
         <v>-2111732.813234117</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6872,18 +5975,15 @@
         <v>-2108759.763034117</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6908,18 +6008,15 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6944,18 +6041,15 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6980,20 +6074,17 @@
         <v>-1944683.117834117</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-16 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>-798239.9365000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-798239.9365000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,12 +562,12 @@
         <v>-819477.8198000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -589,12 +601,12 @@
         <v>-814848.2086</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -628,12 +640,12 @@
         <v>-814848.2086</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -670,7 +682,9 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -704,10 +718,14 @@
         <v>-827723.4828</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -741,10 +759,14 @@
         <v>-827723.4828</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -778,10 +800,14 @@
         <v>-929288.3453</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -815,12 +841,14 @@
         <v>-1005863.4145</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>6.333</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -854,12 +882,14 @@
         <v>-831029.1324</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.33</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -893,12 +923,14 @@
         <v>-873548.0615</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6.334</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -932,12 +964,14 @@
         <v>-873548.0615</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>6.33</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -971,12 +1005,14 @@
         <v>-885934.1697</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>6.33</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1010,12 +1046,14 @@
         <v>-918132.7045999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>6.326</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1049,12 +1087,14 @@
         <v>-914875.7045999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>6.325</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1088,12 +1128,14 @@
         <v>-928294.0957999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>6.334</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1127,12 +1169,14 @@
         <v>-845514.9031999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>6.333</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1166,12 +1210,14 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>6.334</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1205,12 +1251,14 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>6.446</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1244,10 +1292,14 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.446</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1281,10 +1333,14 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.446</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1318,10 +1374,14 @@
         <v>-722141.0567999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.446</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1355,10 +1415,14 @@
         <v>930552.8639</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1395,7 +1459,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1432,7 +1498,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1469,7 +1537,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1506,7 +1576,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1543,7 +1615,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1580,7 +1654,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1617,7 +1693,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1654,7 +1732,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1691,7 +1771,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1728,7 +1810,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1765,7 +1849,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1802,7 +1888,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1839,7 +1927,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,7 +1966,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1913,7 +2005,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1947,16 +2041,20 @@
         <v>344504.8725000001</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>6.33</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
       <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1982,11 +2080,17 @@
         <v>344504.8725000001</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2015,11 +2119,17 @@
         <v>344591.2100000001</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2048,11 +2158,17 @@
         <v>344591.2100000001</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +2197,17 @@
         <v>344591.2100000001</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2114,11 +2236,17 @@
         <v>344591.2100000001</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2147,11 +2275,17 @@
         <v>314987.3003000001</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2180,11 +2314,17 @@
         <v>295632.4195000001</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2213,11 +2353,17 @@
         <v>295632.4195000001</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2246,11 +2392,17 @@
         <v>290632.4195000001</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2279,11 +2431,17 @@
         <v>439381.50992664</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2312,11 +2470,17 @@
         <v>435716.60582664</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2348,8 +2512,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2381,8 +2551,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2414,8 +2590,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2447,8 +2629,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2480,8 +2668,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2513,8 +2707,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2543,11 +2743,17 @@
         <v>388616.2747602201</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2576,11 +2782,17 @@
         <v>391616.2747602201</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2609,11 +2821,17 @@
         <v>370642.0013602201</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2642,11 +2860,17 @@
         <v>370642.0013602201</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2678,8 +2902,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2708,13 +2938,19 @@
         <v>386360.40982664</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>1.040813586097946</v>
       </c>
       <c r="M65" t="inlineStr"/>
     </row>
@@ -2741,7 +2977,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2774,7 +3010,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2807,7 +3043,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2840,7 +3076,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2873,7 +3109,7 @@
         <v>415376.6173266401</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2906,7 +3142,7 @@
         <v>405376.6173266401</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2939,7 +3175,7 @@
         <v>405376.6173266401</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2972,7 +3208,7 @@
         <v>-79131.08717335993</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3005,7 +3241,7 @@
         <v>-579131.0871733599</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3038,7 +3274,7 @@
         <v>-1187417.17157336</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3071,7 +3307,7 @@
         <v>-1811195.55147336</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3104,7 +3340,7 @@
         <v>-1775722.267609824</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3236,7 +3472,7 @@
         <v>-1774130.580934117</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3302,7 +3538,7 @@
         <v>-1810766.353734117</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3335,7 +3571,7 @@
         <v>-1853635.231034117</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3731,7 +3967,7 @@
         <v>-2734741.737834117</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3863,7 +4099,7 @@
         <v>-2672201.209334117</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3896,7 +4132,7 @@
         <v>-2617702.867834117</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3929,7 +4165,7 @@
         <v>-2792566.772134117</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4523,7 +4759,7 @@
         <v>-1505237.639234117</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4556,7 +4792,7 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4589,7 +4825,7 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4622,7 +4858,7 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4655,7 +4891,7 @@
         <v>-1535023.786234117</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5414,7 +5650,7 @@
         <v>-1755876.093034117</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5447,7 +5683,7 @@
         <v>-1755744.467034117</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5480,7 +5716,7 @@
         <v>-1755744.467034117</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5810,7 +6046,7 @@
         <v>-1791819.625534117</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5843,7 +6079,7 @@
         <v>-1791819.625534117</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5876,7 +6112,7 @@
         <v>-2019003.707934117</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5909,7 +6145,7 @@
         <v>-1980624.620734117</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5942,7 +6178,7 @@
         <v>-2111732.813234117</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5975,7 +6211,7 @@
         <v>-2108759.763034117</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6008,7 +6244,7 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6041,7 +6277,7 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6074,7 +6310,7 @@
         <v>-1944683.117834117</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6085,6 +6321,6 @@
       <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-16 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-798239.9365000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,380 +517,330 @@
         <v>-798239.9365000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21237.8833</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-819477.8198000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.425</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.425</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4629.6112</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-814848.2086</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10996.4818</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-814848.2086</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1575.8657</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-814848.2086</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>6.325</v>
       </c>
-      <c r="D5" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21237.8833</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-819477.8198000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12875.2742</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-827723.4828</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>156871.5026</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-827723.4828</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.333</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>101564.8625</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-929288.3453</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="C12" t="n">
         <v>6.33</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="D12" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F12" t="n">
+        <v>76575.0692</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1005863.4145</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>174834.2821</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-831029.1324</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6.425</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.425</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4629.6112</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-814848.2086</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10996.4818</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-814848.2086</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1575.8657</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-814848.2086</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6.344</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.344</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12875.2742</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-827723.4828</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.435</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="F10" t="n">
-        <v>156871.5026</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-827723.4828</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6.333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.333</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.333</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.333</v>
-      </c>
-      <c r="F11" t="n">
-        <v>101564.8625</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-929288.3453</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="F12" t="n">
-        <v>76575.0692</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-1005863.4145</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.333</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="F13" t="n">
-        <v>174834.2821</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-831029.1324</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -928,9 +874,7 @@
       <c r="I14" t="n">
         <v>6.334</v>
       </c>
-      <c r="J14" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -969,9 +913,7 @@
       <c r="I15" t="n">
         <v>6.33</v>
       </c>
-      <c r="J15" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1010,9 +952,7 @@
       <c r="I16" t="n">
         <v>6.33</v>
       </c>
-      <c r="J16" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1051,9 +991,7 @@
       <c r="I17" t="n">
         <v>6.326</v>
       </c>
-      <c r="J17" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1092,9 +1030,7 @@
       <c r="I18" t="n">
         <v>6.325</v>
       </c>
-      <c r="J18" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1133,9 +1069,7 @@
       <c r="I19" t="n">
         <v>6.334</v>
       </c>
-      <c r="J19" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1174,9 +1108,7 @@
       <c r="I20" t="n">
         <v>6.333</v>
       </c>
-      <c r="J20" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1215,9 +1147,7 @@
       <c r="I21" t="n">
         <v>6.334</v>
       </c>
-      <c r="J21" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1251,14 +1181,10 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.446</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1292,14 +1218,10 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.446</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1333,14 +1255,10 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6.446</v>
-      </c>
-      <c r="J24" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1374,14 +1292,10 @@
         <v>-722141.0567999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6.446</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1415,14 +1329,10 @@
         <v>930552.8639</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="J26" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1459,9 +1369,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1498,9 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1537,9 +1443,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1576,9 +1480,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1615,9 +1517,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1654,9 +1554,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1693,9 +1591,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1732,9 +1628,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1771,9 +1665,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1810,9 +1702,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1849,9 +1739,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1888,9 +1776,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1927,9 +1813,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1966,9 +1850,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,9 +1887,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,9 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,9 +1961,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,9 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2161,9 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,9 +2072,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2239,9 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2278,9 +2146,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,9 +2183,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2353,20 +2217,16 @@
         <v>295632.4195000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2395,14 +2255,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2431,17 +2285,11 @@
         <v>439381.50992664</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2473,14 +2321,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2509,17 +2351,11 @@
         <v>420716.60582664</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2551,14 +2387,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2587,17 +2417,11 @@
         <v>391482.88042664</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2629,14 +2453,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2668,14 +2486,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2707,14 +2519,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2746,14 +2552,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2785,14 +2585,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2821,17 +2615,11 @@
         <v>370642.0013602201</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2863,14 +2651,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2902,14 +2684,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2938,19 +2714,13 @@
         <v>386360.40982664</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>1.040813586097946</v>
+        <v>1</v>
       </c>
       <c r="M65" t="inlineStr"/>
     </row>
@@ -3010,7 +2780,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3043,7 +2813,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3076,7 +2846,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3109,7 +2879,7 @@
         <v>415376.6173266401</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3142,7 +2912,7 @@
         <v>405376.6173266401</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3175,7 +2945,7 @@
         <v>405376.6173266401</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3208,7 +2978,7 @@
         <v>-79131.08717335993</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3241,7 +3011,7 @@
         <v>-579131.0871733599</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3274,7 +3044,7 @@
         <v>-1187417.17157336</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3307,7 +3077,7 @@
         <v>-1811195.55147336</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3340,7 +3110,7 @@
         <v>-1775722.267609824</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3472,7 +3242,7 @@
         <v>-1774130.580934117</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3538,7 +3308,7 @@
         <v>-1810766.353734117</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3571,7 +3341,7 @@
         <v>-1853635.231034117</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -5551,7 +5321,7 @@
         <v>-1668597.316334117</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5584,7 +5354,7 @@
         <v>-1668597.316334117</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5782,7 +5552,7 @@
         <v>-1853842.198334117</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5815,7 +5585,7 @@
         <v>-1857737.690934117</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6321,6 +6091,6 @@
       <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-16 BackTest ORBS.xlsx
@@ -583,14 +583,10 @@
         <v>-814848.2086</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -623,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -662,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -797,11 +781,17 @@
         <v>-1005863.4145</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.333</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -838,7 +828,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1181,9 +1171,11 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.446</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1218,9 +1210,11 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.446</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1255,9 +1249,11 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.446</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -2143,18 +2139,16 @@
         <v>314987.3003000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2180,15 +2174,11 @@
         <v>295632.4195000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2221,12 +2211,10 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2252,7 +2240,7 @@
         <v>290632.4195000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2318,7 +2306,7 @@
         <v>435716.60582664</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2417,7 +2405,7 @@
         <v>391482.88042664</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2615,7 +2603,7 @@
         <v>370642.0013602201</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2747,7 +2735,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -4562,7 +4550,7 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4595,7 +4583,7 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4628,7 +4616,7 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4661,7 +4649,7 @@
         <v>-1535023.786234117</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4694,7 +4682,7 @@
         <v>-1535023.786234117</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4727,7 +4715,7 @@
         <v>-1536470.786234117</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4859,7 +4847,7 @@
         <v>-1579157.317334117</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4892,7 +4880,7 @@
         <v>-1587096.833434117</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4925,7 +4913,7 @@
         <v>-1588564.833434117</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4991,7 +4979,7 @@
         <v>-1605383.749434117</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5057,7 +5045,7 @@
         <v>-1759278.461334117</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5354,7 +5342,7 @@
         <v>-1668597.316334117</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5387,7 +5375,7 @@
         <v>-1742724.311234117</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5453,7 +5441,7 @@
         <v>-1755744.467034117</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5486,7 +5474,7 @@
         <v>-1755744.467034117</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5519,7 +5507,7 @@
         <v>-1855744.467034117</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5882,7 +5870,7 @@
         <v>-2019003.707934117</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5915,7 +5903,7 @@
         <v>-1980624.620734117</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5981,7 +5969,7 @@
         <v>-2108759.763034117</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6014,7 +6002,7 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6047,7 +6035,7 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6080,7 +6068,7 @@
         <v>-1944683.117834117</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-16 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>134536.7415</v>
       </c>
       <c r="G2" t="n">
-        <v>-798239.9365000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2686</v>
       </c>
       <c r="G3" t="n">
-        <v>-798239.9365000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>3562</v>
       </c>
       <c r="G4" t="n">
-        <v>-798239.9365000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.33</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,23 @@
         <v>21237.8833</v>
       </c>
       <c r="G5" t="n">
-        <v>-819477.8198000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,21 @@
         <v>4629.6112</v>
       </c>
       <c r="G6" t="n">
-        <v>-814848.2086</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,21 @@
         <v>10996.4818</v>
       </c>
       <c r="G7" t="n">
-        <v>-814848.2086</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +647,21 @@
         <v>1575.8657</v>
       </c>
       <c r="G8" t="n">
-        <v>-814848.2086</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +683,21 @@
         <v>12875.2742</v>
       </c>
       <c r="G9" t="n">
-        <v>-827723.4828</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +719,23 @@
         <v>156871.5026</v>
       </c>
       <c r="G10" t="n">
-        <v>-827723.4828</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>6.334</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +757,23 @@
         <v>101564.8625</v>
       </c>
       <c r="G11" t="n">
-        <v>-929288.3453</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>6.334</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,24 +795,23 @@
         <v>76575.0692</v>
       </c>
       <c r="G12" t="n">
-        <v>-1005863.4145</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>6.333</v>
       </c>
       <c r="I12" t="n">
-        <v>6.333</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -817,24 +833,21 @@
         <v>174834.2821</v>
       </c>
       <c r="G13" t="n">
-        <v>-831029.1324</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
         <v>6.33</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -856,24 +869,23 @@
         <v>42518.9291</v>
       </c>
       <c r="G14" t="n">
-        <v>-873548.0615</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>6.334</v>
       </c>
       <c r="I14" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -895,24 +907,21 @@
         <v>26244.6808</v>
       </c>
       <c r="G15" t="n">
-        <v>-873548.0615</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>6.33</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -934,24 +943,21 @@
         <v>12386.1082</v>
       </c>
       <c r="G16" t="n">
-        <v>-885934.1697</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>6.33</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,24 +979,21 @@
         <v>32198.5349</v>
       </c>
       <c r="G17" t="n">
-        <v>-918132.7045999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1012,24 +1015,21 @@
         <v>3257</v>
       </c>
       <c r="G18" t="n">
-        <v>-914875.7045999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1051,24 +1051,23 @@
         <v>13418.3912</v>
       </c>
       <c r="G19" t="n">
-        <v>-928294.0957999999</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>6.334</v>
       </c>
       <c r="I19" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1090,24 +1089,23 @@
         <v>82779.19259999999</v>
       </c>
       <c r="G20" t="n">
-        <v>-845514.9031999999</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>6.333</v>
       </c>
       <c r="I20" t="n">
-        <v>6.333</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1129,24 +1127,23 @@
         <v>10000</v>
       </c>
       <c r="G21" t="n">
-        <v>-835514.9031999999</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>6.334</v>
       </c>
       <c r="I21" t="n">
-        <v>6.334</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1168,24 +1165,23 @@
         <v>5144.1614</v>
       </c>
       <c r="G22" t="n">
-        <v>-835514.9031999999</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>6.446</v>
       </c>
       <c r="I22" t="n">
-        <v>6.446</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1207,24 +1203,21 @@
         <v>9081.3709</v>
       </c>
       <c r="G23" t="n">
-        <v>-835514.9031999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>6.446</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1246,24 +1239,21 @@
         <v>192163.8252</v>
       </c>
       <c r="G24" t="n">
-        <v>-835514.9031999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>6.446</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1285,22 +1275,21 @@
         <v>113373.8464</v>
       </c>
       <c r="G25" t="n">
-        <v>-722141.0567999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,22 +1311,21 @@
         <v>1652693.9207</v>
       </c>
       <c r="G26" t="n">
-        <v>930552.8639</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1359,22 +1347,21 @@
         <v>6433.8439</v>
       </c>
       <c r="G27" t="n">
-        <v>936986.7078</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1396,22 +1383,21 @@
         <v>25105.5539</v>
       </c>
       <c r="G28" t="n">
-        <v>911881.1539</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1433,22 +1419,21 @@
         <v>7467.0711</v>
       </c>
       <c r="G29" t="n">
-        <v>919348.225</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1470,22 +1455,21 @@
         <v>48685.9973</v>
       </c>
       <c r="G30" t="n">
-        <v>968034.2223</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1507,22 +1491,21 @@
         <v>9973.717000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>978007.9393</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1544,22 +1527,21 @@
         <v>626727.7566</v>
       </c>
       <c r="G32" t="n">
-        <v>351280.1827</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1581,22 +1563,21 @@
         <v>1239.1932</v>
       </c>
       <c r="G33" t="n">
-        <v>350040.9895</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1618,22 +1599,21 @@
         <v>2729.0931</v>
       </c>
       <c r="G34" t="n">
-        <v>347311.8964</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1655,22 +1635,21 @@
         <v>600.3302</v>
       </c>
       <c r="G35" t="n">
-        <v>347912.2266000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1692,22 +1671,21 @@
         <v>13000</v>
       </c>
       <c r="G36" t="n">
-        <v>334912.2266000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1729,22 +1707,21 @@
         <v>8081.6154</v>
       </c>
       <c r="G37" t="n">
-        <v>342993.8420000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1766,22 +1743,21 @@
         <v>9918.000099999999</v>
       </c>
       <c r="G38" t="n">
-        <v>342993.8420000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1803,22 +1779,21 @@
         <v>6000</v>
       </c>
       <c r="G39" t="n">
-        <v>342993.8420000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1840,22 +1815,21 @@
         <v>3407.8319</v>
       </c>
       <c r="G40" t="n">
-        <v>342993.8420000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1877,22 +1851,21 @@
         <v>592.1681</v>
       </c>
       <c r="G41" t="n">
-        <v>342993.8420000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,22 +1887,21 @@
         <v>1511.0305</v>
       </c>
       <c r="G42" t="n">
-        <v>344504.8725000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1951,22 +1923,21 @@
         <v>64994.5982</v>
       </c>
       <c r="G43" t="n">
-        <v>344504.8725000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1988,22 +1959,21 @@
         <v>86.33750000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>344591.2100000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2025,22 +1995,21 @@
         <v>913.6625</v>
       </c>
       <c r="G45" t="n">
-        <v>344591.2100000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2062,22 +2031,21 @@
         <v>28888.4453</v>
       </c>
       <c r="G46" t="n">
-        <v>344591.2100000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2099,22 +2067,21 @@
         <v>101.2592551928783</v>
       </c>
       <c r="G47" t="n">
-        <v>344591.2100000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2136,20 +2103,21 @@
         <v>29603.9097</v>
       </c>
       <c r="G48" t="n">
-        <v>314987.3003000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
       </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2171,18 +2139,21 @@
         <v>19354.8808</v>
       </c>
       <c r="G49" t="n">
-        <v>295632.4195000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2204,18 +2175,21 @@
         <v>47150.8964</v>
       </c>
       <c r="G50" t="n">
-        <v>295632.4195000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2237,18 +2211,21 @@
         <v>5000</v>
       </c>
       <c r="G51" t="n">
-        <v>290632.4195000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2270,18 +2247,21 @@
         <v>148749.0904266399</v>
       </c>
       <c r="G52" t="n">
-        <v>439381.50992664</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2303,18 +2283,21 @@
         <v>3664.9041</v>
       </c>
       <c r="G53" t="n">
-        <v>435716.60582664</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2336,18 +2319,21 @@
         <v>15000</v>
       </c>
       <c r="G54" t="n">
-        <v>420716.60582664</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2369,18 +2355,21 @@
         <v>766.2746</v>
       </c>
       <c r="G55" t="n">
-        <v>421482.88042664</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,18 +2391,21 @@
         <v>30000</v>
       </c>
       <c r="G56" t="n">
-        <v>391482.88042664</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2435,18 +2427,21 @@
         <v>15107.17573358006</v>
       </c>
       <c r="G57" t="n">
-        <v>406590.0561602201</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2468,18 +2463,21 @@
         <v>1034.8259</v>
       </c>
       <c r="G58" t="n">
-        <v>406590.0561602201</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2501,18 +2499,21 @@
         <v>8840</v>
       </c>
       <c r="G59" t="n">
-        <v>397750.0561602201</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2534,18 +2535,21 @@
         <v>9133.7814</v>
       </c>
       <c r="G60" t="n">
-        <v>388616.2747602201</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2567,18 +2571,21 @@
         <v>3000</v>
       </c>
       <c r="G61" t="n">
-        <v>391616.2747602201</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2600,18 +2607,21 @@
         <v>20974.2734</v>
       </c>
       <c r="G62" t="n">
-        <v>370642.0013602201</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2633,18 +2643,21 @@
         <v>84656.6982</v>
       </c>
       <c r="G63" t="n">
-        <v>370642.0013602201</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2666,18 +2679,21 @@
         <v>41234.0433</v>
       </c>
       <c r="G64" t="n">
-        <v>370642.0013602201</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2699,18 +2715,21 @@
         <v>15718.40846641994</v>
       </c>
       <c r="G65" t="n">
-        <v>386360.40982664</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2732,18 +2751,21 @@
         <v>125347.5703</v>
       </c>
       <c r="G66" t="n">
-        <v>511707.9801266401</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2765,18 +2787,21 @@
         <v>26202.4846</v>
       </c>
       <c r="G67" t="n">
-        <v>511707.9801266401</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2798,18 +2823,21 @@
         <v>39303.8774</v>
       </c>
       <c r="G68" t="n">
-        <v>511707.9801266401</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2831,18 +2859,21 @@
         <v>28639.1573</v>
       </c>
       <c r="G69" t="n">
-        <v>511707.9801266401</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2864,18 +2895,21 @@
         <v>96331.3628</v>
       </c>
       <c r="G70" t="n">
-        <v>415376.6173266401</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2897,18 +2931,21 @@
         <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>405376.6173266401</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2930,18 +2967,21 @@
         <v>9315.303900000001</v>
       </c>
       <c r="G72" t="n">
-        <v>405376.6173266401</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2963,18 +3003,21 @@
         <v>484507.7045</v>
       </c>
       <c r="G73" t="n">
-        <v>-79131.08717335993</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2996,18 +3039,21 @@
         <v>500000</v>
       </c>
       <c r="G74" t="n">
-        <v>-579131.0871733599</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3029,18 +3075,21 @@
         <v>608286.0844000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-1187417.17157336</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3062,18 +3111,21 @@
         <v>623778.3799000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-1811195.55147336</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3095,18 +3147,21 @@
         <v>35473.28386353634</v>
       </c>
       <c r="G77" t="n">
-        <v>-1775722.267609824</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3128,18 +3183,21 @@
         <v>8369.240675707231</v>
       </c>
       <c r="G78" t="n">
-        <v>-1767353.026934117</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3161,18 +3219,21 @@
         <v>7663.3881</v>
       </c>
       <c r="G79" t="n">
-        <v>-1775016.415034117</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3194,18 +3255,21 @@
         <v>1518.0241</v>
       </c>
       <c r="G80" t="n">
-        <v>-1773498.390934117</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,18 +3291,21 @@
         <v>632.1900000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>-1774130.580934117</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3260,18 +3327,21 @@
         <v>6290</v>
       </c>
       <c r="G82" t="n">
-        <v>-1767840.580934117</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3293,18 +3363,21 @@
         <v>42925.7728</v>
       </c>
       <c r="G83" t="n">
-        <v>-1810766.353734117</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3326,18 +3399,21 @@
         <v>42868.8773</v>
       </c>
       <c r="G84" t="n">
-        <v>-1853635.231034117</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3359,18 +3435,21 @@
         <v>79</v>
       </c>
       <c r="G85" t="n">
-        <v>-1853714.231034117</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3392,18 +3471,21 @@
         <v>489450</v>
       </c>
       <c r="G86" t="n">
-        <v>-2343164.231034117</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3425,18 +3507,21 @@
         <v>9190.165800000001</v>
       </c>
       <c r="G87" t="n">
-        <v>-2343164.231034117</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3458,18 +3543,21 @@
         <v>4376.7753</v>
       </c>
       <c r="G88" t="n">
-        <v>-2338787.455734117</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3491,18 +3579,21 @@
         <v>17893.2171</v>
       </c>
       <c r="G89" t="n">
-        <v>-2320894.238634117</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3524,18 +3615,21 @@
         <v>78.3</v>
       </c>
       <c r="G90" t="n">
-        <v>-2320894.238634117</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3557,18 +3651,21 @@
         <v>1871.8316</v>
       </c>
       <c r="G91" t="n">
-        <v>-2319022.407034117</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3590,18 +3687,21 @@
         <v>348571.9706</v>
       </c>
       <c r="G92" t="n">
-        <v>-2667594.377634117</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3623,18 +3723,21 @@
         <v>7070</v>
       </c>
       <c r="G93" t="n">
-        <v>-2660524.377634117</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3656,18 +3759,21 @@
         <v>15930.3074</v>
       </c>
       <c r="G94" t="n">
-        <v>-2676454.685034117</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3689,18 +3795,21 @@
         <v>66756.9777</v>
       </c>
       <c r="G95" t="n">
-        <v>-2743211.662734117</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3722,18 +3831,21 @@
         <v>8469.9249</v>
       </c>
       <c r="G96" t="n">
-        <v>-2734741.737834117</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3755,18 +3867,21 @@
         <v>24939.4884</v>
       </c>
       <c r="G97" t="n">
-        <v>-2709802.249434117</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3788,18 +3903,21 @@
         <v>89275.98970000001</v>
       </c>
       <c r="G98" t="n">
-        <v>-2620526.259734117</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3821,18 +3939,21 @@
         <v>15363.0407</v>
       </c>
       <c r="G99" t="n">
-        <v>-2635889.300434117</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3854,18 +3975,21 @@
         <v>36311.9089</v>
       </c>
       <c r="G100" t="n">
-        <v>-2672201.209334117</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3887,18 +4011,21 @@
         <v>54498.3415</v>
       </c>
       <c r="G101" t="n">
-        <v>-2617702.867834117</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3920,18 +4047,21 @@
         <v>174863.9043</v>
       </c>
       <c r="G102" t="n">
-        <v>-2792566.772134117</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3953,18 +4083,21 @@
         <v>77</v>
       </c>
       <c r="G103" t="n">
-        <v>-2792489.772134117</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3986,18 +4119,21 @@
         <v>1472463.1586</v>
       </c>
       <c r="G104" t="n">
-        <v>-4264952.930734117</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4019,18 +4155,21 @@
         <v>159768.1344</v>
       </c>
       <c r="G105" t="n">
-        <v>-4264952.930734117</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4052,18 +4191,21 @@
         <v>77</v>
       </c>
       <c r="G106" t="n">
-        <v>-4264875.930734117</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4085,18 +4227,21 @@
         <v>463546.5031</v>
       </c>
       <c r="G107" t="n">
-        <v>-4728422.433834117</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4118,18 +4263,21 @@
         <v>77</v>
       </c>
       <c r="G108" t="n">
-        <v>-4728345.433834117</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4151,18 +4299,21 @@
         <v>298.2316</v>
       </c>
       <c r="G109" t="n">
-        <v>-4728643.665434116</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4184,18 +4335,21 @@
         <v>4520.4333</v>
       </c>
       <c r="G110" t="n">
-        <v>-4728643.665434116</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4217,18 +4371,21 @@
         <v>202299.2964</v>
       </c>
       <c r="G111" t="n">
-        <v>-4728643.665434116</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4250,18 +4407,21 @@
         <v>11024.4307</v>
       </c>
       <c r="G112" t="n">
-        <v>-4728643.665434116</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4283,18 +4443,21 @@
         <v>77</v>
       </c>
       <c r="G113" t="n">
-        <v>-4728566.665434116</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4316,18 +4479,21 @@
         <v>308</v>
       </c>
       <c r="G114" t="n">
-        <v>-4728874.665434116</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4349,18 +4515,21 @@
         <v>28000</v>
       </c>
       <c r="G115" t="n">
-        <v>-4728874.665434116</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4382,18 +4551,21 @@
         <v>7534.035</v>
       </c>
       <c r="G116" t="n">
-        <v>-4721340.630434116</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4415,18 +4587,21 @@
         <v>10295.7095</v>
       </c>
       <c r="G117" t="n">
-        <v>-4711044.920934116</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4448,18 +4623,21 @@
         <v>331112.8658</v>
       </c>
       <c r="G118" t="n">
-        <v>-4379932.055134117</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4481,18 +4659,21 @@
         <v>3170160.3532</v>
       </c>
       <c r="G119" t="n">
-        <v>-1209771.701934117</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4514,18 +4695,21 @@
         <v>295465.9373</v>
       </c>
       <c r="G120" t="n">
-        <v>-1505237.639234117</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4547,18 +4731,21 @@
         <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>-1505137.639234117</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4580,18 +4767,21 @@
         <v>571.6438000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>-1505137.639234117</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4613,18 +4803,21 @@
         <v>1259.1242</v>
       </c>
       <c r="G123" t="n">
-        <v>-1505137.639234117</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4646,18 +4839,23 @@
         <v>29886.147</v>
       </c>
       <c r="G124" t="n">
-        <v>-1535023.786234117</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1.086785150078989</v>
+      </c>
       <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>1.001895734597156</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4679,18 +4877,15 @@
         <v>28649.978</v>
       </c>
       <c r="G125" t="n">
-        <v>-1535023.786234117</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4712,18 +4907,15 @@
         <v>1447</v>
       </c>
       <c r="G126" t="n">
-        <v>-1536470.786234117</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4745,18 +4937,15 @@
         <v>998.4</v>
       </c>
       <c r="G127" t="n">
-        <v>-1536470.786234117</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4778,18 +4967,15 @@
         <v>410.4061</v>
       </c>
       <c r="G128" t="n">
-        <v>-1536881.192334117</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4811,18 +4997,15 @@
         <v>2929.7277</v>
       </c>
       <c r="G129" t="n">
-        <v>-1536881.192334117</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4844,18 +5027,15 @@
         <v>42276.125</v>
       </c>
       <c r="G130" t="n">
-        <v>-1579157.317334117</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4877,18 +5057,15 @@
         <v>7939.5161</v>
       </c>
       <c r="G131" t="n">
-        <v>-1587096.833434117</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4910,18 +5087,15 @@
         <v>1468</v>
       </c>
       <c r="G132" t="n">
-        <v>-1588564.833434117</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4943,18 +5117,15 @@
         <v>165350.916</v>
       </c>
       <c r="G133" t="n">
-        <v>-1753915.749434117</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4976,18 +5147,15 @@
         <v>148532</v>
       </c>
       <c r="G134" t="n">
-        <v>-1605383.749434117</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5009,18 +5177,15 @@
         <v>93894.71189999999</v>
       </c>
       <c r="G135" t="n">
-        <v>-1699278.461334117</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5042,18 +5207,15 @@
         <v>60000</v>
       </c>
       <c r="G136" t="n">
-        <v>-1759278.461334117</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5075,18 +5237,15 @@
         <v>400666.8714</v>
       </c>
       <c r="G137" t="n">
-        <v>-1759278.461334117</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5108,18 +5267,15 @@
         <v>5064.1844</v>
       </c>
       <c r="G138" t="n">
-        <v>-1764342.645734117</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5141,18 +5297,15 @@
         <v>124899.7491</v>
       </c>
       <c r="G139" t="n">
-        <v>-1639442.896634117</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5174,18 +5327,15 @@
         <v>32006.9721</v>
       </c>
       <c r="G140" t="n">
-        <v>-1639442.896634117</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5207,18 +5357,15 @@
         <v>13226.1685</v>
       </c>
       <c r="G141" t="n">
-        <v>-1639442.896634117</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5240,18 +5387,15 @@
         <v>717.2764</v>
       </c>
       <c r="G142" t="n">
-        <v>-1638725.620234117</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5273,18 +5417,15 @@
         <v>29871.6961</v>
       </c>
       <c r="G143" t="n">
-        <v>-1668597.316334117</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5306,18 +5447,15 @@
         <v>305.6957</v>
       </c>
       <c r="G144" t="n">
-        <v>-1668597.316334117</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5339,18 +5477,15 @@
         <v>11092</v>
       </c>
       <c r="G145" t="n">
-        <v>-1668597.316334117</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5372,18 +5507,15 @@
         <v>74126.99490000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-1742724.311234117</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5405,18 +5537,15 @@
         <v>13151.7818</v>
       </c>
       <c r="G147" t="n">
-        <v>-1755876.093034117</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5438,18 +5567,15 @@
         <v>131.626</v>
       </c>
       <c r="G148" t="n">
-        <v>-1755744.467034117</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5471,18 +5597,15 @@
         <v>5000</v>
       </c>
       <c r="G149" t="n">
-        <v>-1755744.467034117</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5504,18 +5627,15 @@
         <v>100000</v>
       </c>
       <c r="G150" t="n">
-        <v>-1855744.467034117</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5537,18 +5657,15 @@
         <v>1902.2687</v>
       </c>
       <c r="G151" t="n">
-        <v>-1853842.198334117</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5570,18 +5687,15 @@
         <v>3895.4926</v>
       </c>
       <c r="G152" t="n">
-        <v>-1857737.690934117</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5603,18 +5717,15 @@
         <v>158.987</v>
       </c>
       <c r="G153" t="n">
-        <v>-1857578.703934117</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5636,18 +5747,15 @@
         <v>6823.2117</v>
       </c>
       <c r="G154" t="n">
-        <v>-1857578.703934117</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5669,18 +5777,15 @@
         <v>36000</v>
       </c>
       <c r="G155" t="n">
-        <v>-1893578.703934117</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5702,18 +5807,15 @@
         <v>101023.1997</v>
       </c>
       <c r="G156" t="n">
-        <v>-1893578.703934117</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5735,18 +5837,15 @@
         <v>29855.1528</v>
       </c>
       <c r="G157" t="n">
-        <v>-1863723.551134117</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5768,18 +5867,15 @@
         <v>54132.702</v>
       </c>
       <c r="G158" t="n">
-        <v>-1863723.551134117</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5801,18 +5897,15 @@
         <v>71903.9256</v>
       </c>
       <c r="G159" t="n">
-        <v>-1791819.625534117</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5834,18 +5927,15 @@
         <v>6000</v>
       </c>
       <c r="G160" t="n">
-        <v>-1791819.625534117</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5867,18 +5957,15 @@
         <v>227184.0824</v>
       </c>
       <c r="G161" t="n">
-        <v>-2019003.707934117</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5900,18 +5987,15 @@
         <v>38379.0872</v>
       </c>
       <c r="G162" t="n">
-        <v>-1980624.620734117</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5933,18 +6017,15 @@
         <v>131108.1925</v>
       </c>
       <c r="G163" t="n">
-        <v>-2111732.813234117</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5966,18 +6047,15 @@
         <v>2973.0502</v>
       </c>
       <c r="G164" t="n">
-        <v>-2108759.763034117</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5999,18 +6077,15 @@
         <v>163976.6452</v>
       </c>
       <c r="G165" t="n">
-        <v>-1944783.117834117</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6032,18 +6107,15 @@
         <v>52361.5736</v>
       </c>
       <c r="G166" t="n">
-        <v>-1944783.117834117</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6065,18 +6137,15 @@
         <v>100</v>
       </c>
       <c r="G167" t="n">
-        <v>-1944683.117834117</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
